--- a/AAII_Financials/Quarterly/JKSM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JKSM_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="92">
   <si>
     <t>JKSM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,92 +665,95 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1300</v>
+        <v>300</v>
       </c>
       <c r="E8" s="3">
         <v>1300</v>
       </c>
       <c r="F8" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G8" s="3">
         <v>1600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1600</v>
       </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
       <c r="J8" s="3">
         <v>0</v>
       </c>
@@ -769,29 +772,32 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>200</v>
+      </c>
+      <c r="E9" s="3">
         <v>800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1200</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J9" s="3" t="s">
         <v>5</v>
       </c>
@@ -810,29 +816,32 @@
       <c r="O9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>100</v>
+      </c>
+      <c r="E10" s="3">
         <v>500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>400</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J10" s="3" t="s">
         <v>5</v>
       </c>
@@ -851,8 +860,11 @@
       <c r="O10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -868,8 +880,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -909,8 +922,11 @@
       <c r="O12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -950,8 +966,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -991,8 +1010,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1032,8 +1054,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1046,29 +1071,30 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>800</v>
+      </c>
+      <c r="E17" s="3">
         <v>1800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2200</v>
       </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
       <c r="J17" s="3">
         <v>0</v>
       </c>
@@ -1087,8 +1113,11 @@
       <c r="O17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1096,20 +1125,20 @@
         <v>-500</v>
       </c>
       <c r="E18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-600</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
       <c r="J18" s="3">
         <v>0</v>
       </c>
@@ -1128,8 +1157,11 @@
       <c r="O18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1145,20 +1177,21 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-5000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1186,29 +1219,32 @@
       <c r="O20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-5500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-2100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-600</v>
       </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
       <c r="J21" s="3">
         <v>0</v>
       </c>
@@ -1227,17 +1263,20 @@
       <c r="O21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>800</v>
+      </c>
+      <c r="E22" s="3">
         <v>400</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
       <c r="F22" s="3">
         <v>0</v>
       </c>
@@ -1268,29 +1307,32 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-5900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-600</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
       <c r="J23" s="3">
         <v>0</v>
       </c>
@@ -1309,8 +1351,11 @@
       <c r="O23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1350,8 +1395,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1391,29 +1439,32 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-5900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-600</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
       <c r="J26" s="3">
         <v>0</v>
       </c>
@@ -1432,29 +1483,32 @@
       <c r="O26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-5900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-600</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
         <v>0</v>
       </c>
@@ -1473,8 +1527,11 @@
       <c r="O27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1514,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1555,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1596,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1637,20 +1703,23 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E32" s="3">
         <v>5000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -1678,29 +1747,32 @@
       <c r="O32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-5900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-600</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
         <v>0</v>
       </c>
@@ -1719,8 +1791,11 @@
       <c r="O33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1760,29 +1835,32 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-5900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-600</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
         <v>0</v>
       </c>
@@ -1801,54 +1879,60 @@
       <c r="O35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1864,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1881,29 +1966,30 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>500</v>
+      </c>
+      <c r="E41" s="3">
         <v>700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1000</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
@@ -1922,8 +2008,11 @@
       <c r="O41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1963,29 +2052,32 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>100</v>
+      </c>
+      <c r="E43" s="3">
         <v>300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>100</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
       <c r="G43" s="3">
         <v>0</v>
       </c>
       <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
         <v>100</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>5</v>
       </c>
@@ -2004,8 +2096,11 @@
       <c r="O43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2013,20 +2108,20 @@
         <v>200</v>
       </c>
       <c r="E44" s="3">
+        <v>200</v>
+      </c>
+      <c r="F44" s="3">
         <v>100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>700</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J44" s="3" t="s">
         <v>5</v>
       </c>
@@ -2045,28 +2140,31 @@
       <c r="O44" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>300</v>
+      </c>
+      <c r="E45" s="3">
         <v>100</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
       <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
         <v>100</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
@@ -2080,35 +2178,38 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>5</v>
+      <c r="N45" s="3">
+        <v>0</v>
       </c>
       <c r="O45" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1800</v>
       </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
       <c r="J46" s="3">
         <v>0</v>
       </c>
@@ -2127,8 +2228,11 @@
       <c r="O46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2168,8 +2272,11 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2188,8 +2295,8 @@
       <c r="H48" s="3">
         <v>0</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>5</v>
+      <c r="I48" s="3">
+        <v>0</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>5</v>
@@ -2209,8 +2316,11 @@
       <c r="O48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2250,8 +2360,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2291,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2332,8 +2448,11 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2343,14 +2462,14 @@
       <c r="E52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
+      <c r="F52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I52" s="3">
         <v>0</v>
@@ -2373,8 +2492,11 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2414,29 +2536,32 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E54" s="3">
         <v>1300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1800</v>
       </c>
-      <c r="I54" s="3">
-        <v>0</v>
-      </c>
       <c r="J54" s="3">
         <v>0</v>
       </c>
@@ -2455,8 +2580,11 @@
       <c r="O54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2472,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2489,29 +2618,30 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>300</v>
+      </c>
+      <c r="E57" s="3">
         <v>400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>100</v>
       </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
       <c r="J57" s="3">
         <v>0</v>
       </c>
@@ -2530,31 +2660,34 @@
       <c r="O57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E58" s="3">
         <v>400</v>
-      </c>
-      <c r="E58" s="3">
-        <v>100</v>
       </c>
       <c r="F58" s="3">
         <v>100</v>
       </c>
       <c r="G58" s="3">
+        <v>100</v>
+      </c>
+      <c r="H58" s="3">
         <v>3300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1600</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
       <c r="J58" s="3">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="K58" s="3">
         <v>1200</v>
@@ -2571,31 +2704,34 @@
       <c r="O58" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E59" s="3">
         <v>10200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>5000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2000</v>
       </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
       <c r="J59" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="K59" s="3">
         <v>400</v>
@@ -2604,7 +2740,7 @@
         <v>400</v>
       </c>
       <c r="M59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N59" s="3">
         <v>300</v>
@@ -2612,31 +2748,34 @@
       <c r="O59" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E60" s="3">
         <v>11000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3700</v>
       </c>
-      <c r="I60" s="3">
-        <v>0</v>
-      </c>
       <c r="J60" s="3">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="K60" s="3">
         <v>1600</v>
@@ -2653,8 +2792,11 @@
       <c r="O60" s="3">
         <v>1600</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2671,11 +2813,11 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>1700</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2694,19 +2836,22 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E62" s="3">
         <v>300</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>5</v>
+      <c r="F62" s="3">
+        <v>300</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>5</v>
@@ -2720,8 +2865,8 @@
       <c r="J62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -2735,8 +2880,11 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2776,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2817,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2858,31 +3012,34 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E66" s="3">
         <v>11300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5400</v>
       </c>
-      <c r="I66" s="3">
-        <v>0</v>
-      </c>
       <c r="J66" s="3">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="K66" s="3">
         <v>1600</v>
@@ -2899,8 +3056,11 @@
       <c r="O66" s="3">
         <v>1600</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2916,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2957,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2998,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3039,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3080,28 +3250,31 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-13200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-7300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-5200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-4500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-3600</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-11800</v>
       </c>
       <c r="J72" s="3">
         <v>-11800</v>
@@ -3110,7 +3283,7 @@
         <v>-11800</v>
       </c>
       <c r="L72" s="3">
-        <v>-11700</v>
+        <v>-11800</v>
       </c>
       <c r="M72" s="3">
         <v>-11700</v>
@@ -3121,8 +3294,11 @@
       <c r="O72" s="3">
         <v>-11700</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3">
+        <v>-11700</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3162,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3203,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3244,31 +3426,34 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E76" s="3">
         <v>-10000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-4000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-4500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-3600</v>
       </c>
-      <c r="I76" s="3">
-        <v>0</v>
-      </c>
       <c r="J76" s="3">
-        <v>-1600</v>
+        <v>0</v>
       </c>
       <c r="K76" s="3">
         <v>-1600</v>
@@ -3285,8 +3470,11 @@
       <c r="O76" s="3">
         <v>-1600</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3">
+        <v>-1600</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3326,75 +3514,81 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-5900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-600</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
         <v>0</v>
       </c>
@@ -3413,8 +3607,11 @@
       <c r="O81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3430,8 +3627,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3447,8 +3645,8 @@
       <c r="G83" s="3">
         <v>0</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>5</v>
+      <c r="H83" s="3">
+        <v>0</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>5</v>
@@ -3456,8 +3654,8 @@
       <c r="J83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
+      <c r="K83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -3471,8 +3669,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3512,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3553,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3594,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3635,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3676,29 +3889,32 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1500</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
         <v>0</v>
       </c>
@@ -3717,8 +3933,11 @@
       <c r="O89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,8 +3953,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3775,8 +3995,11 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3816,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3857,8 +4083,11 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3898,8 +4127,11 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3915,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3956,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3997,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4038,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4079,29 +4321,32 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1400</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>1100</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
@@ -4120,8 +4365,11 @@
       <c r="O100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4161,29 +4409,32 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
@@ -4200,6 +4451,9 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/JKSM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JKSM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
   <si>
     <t>JKSM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,108 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>600</v>
+      </c>
+      <c r="E8" s="3">
+        <v>700</v>
+      </c>
+      <c r="F8" s="3">
         <v>300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>1300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>1300</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1600</v>
-      </c>
-      <c r="H8" s="3">
-        <v>1700</v>
       </c>
       <c r="I8" s="3">
         <v>1600</v>
       </c>
       <c r="J8" s="3">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="K8" s="3">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
@@ -775,8 +783,14 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -784,26 +798,26 @@
         <v>200</v>
       </c>
       <c r="E9" s="3">
+        <v>300</v>
+      </c>
+      <c r="F9" s="3">
+        <v>200</v>
+      </c>
+      <c r="G9" s="3">
         <v>800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>1400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>1100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>1500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>1200</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>5</v>
       </c>
@@ -819,35 +833,41 @@
       <c r="P9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>400</v>
+      </c>
+      <c r="E10" s="3">
+        <v>400</v>
+      </c>
+      <c r="F10" s="3">
         <v>100</v>
-      </c>
-      <c r="E10" s="3">
-        <v>500</v>
-      </c>
-      <c r="F10" s="3">
-        <v>-100</v>
       </c>
       <c r="G10" s="3">
         <v>500</v>
       </c>
       <c r="H10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I10" s="3">
+        <v>500</v>
+      </c>
+      <c r="J10" s="3">
         <v>200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>400</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>5</v>
       </c>
@@ -863,8 +883,14 @@
       <c r="P10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +907,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +953,14 @@
       <c r="P12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +1003,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,8 +1053,14 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1103,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,35 +1124,37 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>700</v>
+      </c>
+      <c r="F17" s="3">
         <v>800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>3200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>2300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>2500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>2200</v>
       </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
       <c r="L17" s="3">
         <v>0</v>
       </c>
@@ -1116,35 +1170,41 @@
       <c r="P17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
         <v>-500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-1900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-600</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
       <c r="L18" s="3">
         <v>0</v>
       </c>
@@ -1160,8 +1220,14 @@
       <c r="P18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,26 +1244,28 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="F20" s="3">
         <v>6500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-5000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1222,34 +1290,40 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="F21" s="3">
         <v>6000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-5500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-2100</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-600</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-900</v>
       </c>
       <c r="I21" s="3">
         <v>-600</v>
       </c>
       <c r="J21" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="K21" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="L21" s="3">
         <v>0</v>
@@ -1266,23 +1340,29 @@
       <c r="P21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+      <c r="R21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>200</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F22" s="3">
         <v>800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>400</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
       <c r="H22" s="3">
         <v>0</v>
       </c>
@@ -1310,35 +1390,41 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="F23" s="3">
         <v>5200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-5900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-2100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-600</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
         <v>0</v>
       </c>
@@ -1354,8 +1440,14 @@
       <c r="P23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1490,14 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,35 +1540,41 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="F26" s="3">
         <v>5200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-5900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-2100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-600</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
         <v>0</v>
       </c>
@@ -1486,35 +1590,41 @@
       <c r="P26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="F27" s="3">
         <v>5200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-5900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-2100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-600</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
         <v>0</v>
       </c>
@@ -1530,8 +1640,14 @@
       <c r="P27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1690,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1740,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1790,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,26 +1840,32 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E32" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F32" s="3">
         <v>-6500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>5000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -1750,35 +1890,41 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="F33" s="3">
         <v>5200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-5900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-2100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-600</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
         <v>0</v>
       </c>
@@ -1794,8 +1940,14 @@
       <c r="P33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,35 +1990,41 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="F35" s="3">
         <v>5200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-5900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-2100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-600</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
         <v>0</v>
       </c>
@@ -1882,57 +2040,69 @@
       <c r="P35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2119,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,35 +2139,37 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>600</v>
+      </c>
+      <c r="E41" s="3">
+        <v>400</v>
+      </c>
+      <c r="F41" s="3">
         <v>500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>1200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1000</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
       <c r="L41" s="3">
         <v>0</v>
       </c>
@@ -2011,8 +2185,14 @@
       <c r="P41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,35 +2235,41 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>200</v>
+      </c>
+      <c r="E43" s="3">
         <v>100</v>
-      </c>
-      <c r="E43" s="3">
-        <v>300</v>
       </c>
       <c r="F43" s="3">
         <v>100</v>
       </c>
       <c r="G43" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
         <v>100</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>5</v>
       </c>
@@ -2099,8 +2285,14 @@
       <c r="P43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2111,23 +2303,23 @@
         <v>200</v>
       </c>
       <c r="F44" s="3">
+        <v>200</v>
+      </c>
+      <c r="G44" s="3">
+        <v>200</v>
+      </c>
+      <c r="H44" s="3">
         <v>100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>700</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L44" s="3" t="s">
         <v>5</v>
       </c>
@@ -2143,19 +2335,25 @@
       <c r="P44" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G45" s="3">
         <v>100</v>
@@ -2163,14 +2361,14 @@
       <c r="H45" s="3">
         <v>0</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>5</v>
+      <c r="I45" s="3">
+        <v>100</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
+      <c r="K45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
@@ -2181,41 +2379,47 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P45" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>900</v>
+      </c>
+      <c r="F46" s="3">
         <v>1000</v>
-      </c>
-      <c r="E46" s="3">
-        <v>1300</v>
-      </c>
-      <c r="F46" s="3">
-        <v>1500</v>
       </c>
       <c r="G46" s="3">
         <v>1300</v>
       </c>
       <c r="H46" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I46" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J46" s="3">
         <v>1900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1800</v>
       </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
       <c r="L46" s="3">
         <v>0</v>
       </c>
@@ -2231,8 +2435,14 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,8 +2485,14 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2298,11 +2514,11 @@
       <c r="I48" s="3">
         <v>0</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>5</v>
+      <c r="J48" s="3">
+        <v>0</v>
+      </c>
+      <c r="K48" s="3">
+        <v>0</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>5</v>
@@ -2319,8 +2535,14 @@
       <c r="P48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2585,14 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2635,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2685,14 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2465,8 +2705,8 @@
       <c r="F52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
+      <c r="G52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>5</v>
@@ -2474,8 +2714,8 @@
       <c r="I52" s="3">
         <v>0</v>
       </c>
-      <c r="J52" s="3">
-        <v>0</v>
+      <c r="J52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -2495,8 +2735,14 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,35 +2785,41 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>900</v>
+      </c>
+      <c r="F54" s="3">
         <v>1000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1800</v>
       </c>
-      <c r="J54" s="3">
-        <v>0</v>
-      </c>
-      <c r="K54" s="3">
-        <v>0</v>
-      </c>
       <c r="L54" s="3">
         <v>0</v>
       </c>
@@ -2583,8 +2835,14 @@
       <c r="P54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+      <c r="R54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2859,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,8 +2879,10 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2628,26 +2890,26 @@
         <v>300</v>
       </c>
       <c r="E57" s="3">
+        <v>300</v>
+      </c>
+      <c r="F57" s="3">
+        <v>300</v>
+      </c>
+      <c r="G57" s="3">
         <v>400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>100</v>
       </c>
-      <c r="J57" s="3">
-        <v>0</v>
-      </c>
-      <c r="K57" s="3">
-        <v>0</v>
-      </c>
       <c r="L57" s="3">
         <v>0</v>
       </c>
@@ -2663,37 +2925,43 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F58" s="3">
         <v>1200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>3300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>1600</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
-      <c r="K58" s="3">
-        <v>1200</v>
-      </c>
       <c r="L58" s="3">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="M58" s="3">
         <v>1200</v>
@@ -2707,81 +2975,93 @@
       <c r="P58" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>1200</v>
+      </c>
+      <c r="R58" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>6700</v>
+      </c>
+      <c r="F59" s="3">
         <v>3800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>10200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>5000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>2900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>2500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>2000</v>
       </c>
-      <c r="J59" s="3">
-        <v>0</v>
-      </c>
-      <c r="K59" s="3">
-        <v>400</v>
-      </c>
       <c r="L59" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="M59" s="3">
         <v>400</v>
       </c>
       <c r="N59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="O59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="P59" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>300</v>
+      </c>
+      <c r="R59" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>8100</v>
+      </c>
+      <c r="F60" s="3">
         <v>5400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>11000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>5200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>3300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>6400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>3700</v>
       </c>
-      <c r="J60" s="3">
-        <v>0</v>
-      </c>
-      <c r="K60" s="3">
-        <v>1600</v>
-      </c>
       <c r="L60" s="3">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="M60" s="3">
         <v>1600</v>
@@ -2795,13 +3075,19 @@
       <c r="P60" s="3">
         <v>1600</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>1600</v>
+      </c>
+      <c r="R60" s="3">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2816,14 +3102,14 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>1700</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2839,26 +3125,32 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>100</v>
+      </c>
+      <c r="E62" s="3">
         <v>200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
+        <v>200</v>
+      </c>
+      <c r="G62" s="3">
         <v>300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>300</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>5</v>
       </c>
@@ -2868,11 +3160,11 @@
       <c r="K62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
@@ -2883,8 +3175,14 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3225,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3275,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,37 +3325,43 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5600</v>
+        <v>6200</v>
       </c>
       <c r="E66" s="3">
-        <v>11300</v>
+        <v>8300</v>
       </c>
       <c r="F66" s="3">
         <v>5600</v>
       </c>
       <c r="G66" s="3">
+        <v>11300</v>
+      </c>
+      <c r="H66" s="3">
+        <v>5600</v>
+      </c>
+      <c r="I66" s="3">
         <v>3300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>6400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>5400</v>
       </c>
-      <c r="J66" s="3">
-        <v>0</v>
-      </c>
-      <c r="K66" s="3">
-        <v>1600</v>
-      </c>
       <c r="L66" s="3">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="M66" s="3">
         <v>1600</v>
@@ -3059,8 +3375,14 @@
       <c r="P66" s="3">
         <v>1600</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3">
+        <v>1600</v>
+      </c>
+      <c r="R66" s="3">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3399,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3445,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3495,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3545,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,43 +3595,49 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="F72" s="3">
         <v>-8100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-13200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-7300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-5200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-4500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-3600</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-11800</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-11800</v>
       </c>
       <c r="L72" s="3">
         <v>-11800</v>
       </c>
       <c r="M72" s="3">
-        <v>-11700</v>
+        <v>-11800</v>
       </c>
       <c r="N72" s="3">
-        <v>-11700</v>
+        <v>-11800</v>
       </c>
       <c r="O72" s="3">
         <v>-11700</v>
@@ -3297,8 +3645,14 @@
       <c r="P72" s="3">
         <v>-11700</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="R72" s="3">
+        <v>-11700</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3695,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3745,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,37 +3795,43 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="F76" s="3">
         <v>-4600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-10000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-4000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-1900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-4500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-3600</v>
       </c>
-      <c r="J76" s="3">
-        <v>0</v>
-      </c>
-      <c r="K76" s="3">
-        <v>-1600</v>
-      </c>
       <c r="L76" s="3">
-        <v>-1600</v>
+        <v>0</v>
       </c>
       <c r="M76" s="3">
         <v>-1600</v>
@@ -3473,8 +3845,14 @@
       <c r="P76" s="3">
         <v>-1600</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="R76" s="3">
+        <v>-1600</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,84 +3895,96 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="F81" s="3">
         <v>5200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-5900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-2100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-600</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
         <v>0</v>
       </c>
@@ -3610,8 +4000,14 @@
       <c r="P81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +4024,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3648,20 +4046,20 @@
       <c r="H83" s="3">
         <v>0</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>5</v>
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
-      <c r="M83" s="3">
-        <v>0</v>
+      <c r="L83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
@@ -3672,8 +4070,14 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4120,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4170,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4220,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4270,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,35 +4320,41 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F89" s="3">
         <v>-500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-600</v>
       </c>
-      <c r="F89" s="3">
-        <v>-700</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-500</v>
-      </c>
       <c r="H89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J89" s="3">
         <v>100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-1500</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
       <c r="L89" s="3">
         <v>0</v>
       </c>
@@ -3936,8 +4370,14 @@
       <c r="P89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4394,10 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3998,8 +4440,14 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4490,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4540,14 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4130,8 +4590,14 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4614,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4660,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4710,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4760,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,35 +4810,41 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>400</v>
+      </c>
+      <c r="E100" s="3">
+        <v>400</v>
+      </c>
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>1400</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>1100</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
@@ -4368,8 +4860,14 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,35 +4910,41 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-300</v>
-      </c>
-      <c r="E102" s="3">
-        <v>-500</v>
-      </c>
-      <c r="F102" s="3">
-        <v>700</v>
       </c>
       <c r="G102" s="3">
         <v>-500</v>
       </c>
       <c r="H102" s="3">
+        <v>600</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J102" s="3">
         <v>100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
@@ -4454,6 +4958,12 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/JKSM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JKSM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
   <si>
     <t>JKSM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,112 +665,116 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>700</v>
+      </c>
+      <c r="E8" s="3">
         <v>600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>300</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1300</v>
       </c>
       <c r="H8" s="3">
         <v>1300</v>
       </c>
       <c r="I8" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J8" s="3">
         <v>1600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1600</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
       <c r="M8" s="3">
         <v>0</v>
       </c>
@@ -789,38 +793,41 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>300</v>
+      </c>
+      <c r="E9" s="3">
         <v>200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1200</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M9" s="3" t="s">
         <v>5</v>
       </c>
@@ -839,8 +846,11 @@
       <c r="R9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -851,26 +861,26 @@
         <v>400</v>
       </c>
       <c r="F10" s="3">
+        <v>400</v>
+      </c>
+      <c r="G10" s="3">
         <v>100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>-100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>400</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>5</v>
       </c>
@@ -889,8 +899,11 @@
       <c r="R10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,8 +922,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -959,8 +973,11 @@
       <c r="R12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,8 +1026,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1059,8 +1079,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1109,8 +1132,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,38 +1152,39 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E17" s="3">
         <v>700</v>
       </c>
       <c r="F17" s="3">
+        <v>700</v>
+      </c>
+      <c r="G17" s="3">
         <v>800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2200</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
       <c r="M17" s="3">
         <v>0</v>
       </c>
@@ -1176,8 +1203,11 @@
       <c r="R17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1185,29 +1215,29 @@
         <v>-100</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F18" s="3">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="G18" s="3">
         <v>-500</v>
       </c>
       <c r="H18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I18" s="3">
         <v>-1900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-600</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
       <c r="M18" s="3">
         <v>0</v>
       </c>
@@ -1226,8 +1256,11 @@
       <c r="R18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,29 +1279,30 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E20" s="3">
         <v>2300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-3800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>6500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-5000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1296,38 +1330,41 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E21" s="3">
         <v>2200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-3800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>6000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-5500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-600</v>
       </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
       <c r="M21" s="3">
         <v>0</v>
       </c>
@@ -1346,26 +1383,29 @@
       <c r="R21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>100</v>
+      </c>
+      <c r="E22" s="3">
         <v>200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>400</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
       <c r="I22" s="3">
         <v>0</v>
       </c>
@@ -1396,38 +1436,41 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E23" s="3">
         <v>2000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-5300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>5200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-5900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-600</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
         <v>0</v>
       </c>
@@ -1446,8 +1489,11 @@
       <c r="R23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1496,8 +1542,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,38 +1595,41 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E26" s="3">
         <v>2000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-5300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>5200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-5900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-600</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
         <v>0</v>
       </c>
@@ -1596,38 +1648,41 @@
       <c r="R26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E27" s="3">
         <v>2000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-5300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>5200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-5900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-600</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
         <v>0</v>
       </c>
@@ -1646,8 +1701,11 @@
       <c r="R27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1754,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1807,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1860,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,29 +1913,32 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>3800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-6500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>5000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -1896,38 +1966,41 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E33" s="3">
         <v>2000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-5300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>5200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-5900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-600</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
         <v>0</v>
       </c>
@@ -1946,8 +2019,11 @@
       <c r="R33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,38 +2072,41 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E35" s="3">
         <v>2000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-5300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>5200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-5900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-600</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
         <v>0</v>
       </c>
@@ -2046,63 +2125,69 @@
       <c r="R35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2206,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,8 +2227,9 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2150,29 +2237,29 @@
         <v>600</v>
       </c>
       <c r="E41" s="3">
+        <v>600</v>
+      </c>
+      <c r="F41" s="3">
         <v>400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1000</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
       <c r="M41" s="3">
         <v>0</v>
       </c>
@@ -2191,8 +2278,11 @@
       <c r="R41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,38 +2331,41 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>300</v>
+      </c>
+      <c r="E43" s="3">
         <v>200</v>
-      </c>
-      <c r="E43" s="3">
-        <v>100</v>
       </c>
       <c r="F43" s="3">
         <v>100</v>
       </c>
       <c r="G43" s="3">
+        <v>100</v>
+      </c>
+      <c r="H43" s="3">
         <v>300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>100</v>
       </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
       <c r="J43" s="3">
         <v>0</v>
       </c>
       <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
         <v>100</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>5</v>
       </c>
@@ -2291,8 +2384,11 @@
       <c r="R43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2309,20 +2405,20 @@
         <v>200</v>
       </c>
       <c r="H44" s="3">
+        <v>200</v>
+      </c>
+      <c r="I44" s="3">
         <v>100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>700</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M44" s="3" t="s">
         <v>5</v>
       </c>
@@ -2341,8 +2437,11 @@
       <c r="R44" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2353,25 +2452,25 @@
         <v>100</v>
       </c>
       <c r="F45" s="3">
+        <v>100</v>
+      </c>
+      <c r="G45" s="3">
         <v>300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>100</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
       <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
         <v>100</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L45" s="3">
-        <v>0</v>
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
@@ -2385,44 +2484,47 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>5</v>
+      <c r="Q45" s="3">
+        <v>0</v>
       </c>
       <c r="R45" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E46" s="3">
         <v>1100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1800</v>
       </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
       <c r="M46" s="3">
         <v>0</v>
       </c>
@@ -2441,8 +2543,11 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2491,8 +2596,11 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2520,8 +2628,8 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>5</v>
+      <c r="L48" s="3">
+        <v>0</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>5</v>
@@ -2541,8 +2649,11 @@
       <c r="R48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2591,8 +2702,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2755,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,8 +2808,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2711,14 +2831,14 @@
       <c r="H52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K52" s="3">
-        <v>0</v>
+      <c r="I52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
@@ -2741,8 +2861,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,38 +2914,41 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E54" s="3">
         <v>1100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1800</v>
       </c>
-      <c r="L54" s="3">
-        <v>0</v>
-      </c>
       <c r="M54" s="3">
         <v>0</v>
       </c>
@@ -2841,8 +2967,11 @@
       <c r="R54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2990,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,8 +3011,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2896,23 +3027,23 @@
         <v>300</v>
       </c>
       <c r="G57" s="3">
+        <v>300</v>
+      </c>
+      <c r="H57" s="3">
         <v>400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>100</v>
       </c>
-      <c r="L57" s="3">
-        <v>0</v>
-      </c>
       <c r="M57" s="3">
         <v>0</v>
       </c>
@@ -2931,40 +3062,43 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E58" s="3">
         <v>1000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>400</v>
-      </c>
-      <c r="H58" s="3">
-        <v>100</v>
       </c>
       <c r="I58" s="3">
         <v>100</v>
       </c>
       <c r="J58" s="3">
+        <v>100</v>
+      </c>
+      <c r="K58" s="3">
         <v>3300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1600</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
       <c r="M58" s="3">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="N58" s="3">
         <v>1200</v>
@@ -2981,40 +3115,43 @@
       <c r="R58" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E59" s="3">
         <v>4500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>6700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>10200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>5000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2000</v>
       </c>
-      <c r="L59" s="3">
-        <v>0</v>
-      </c>
       <c r="M59" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="N59" s="3">
         <v>400</v>
@@ -3023,7 +3160,7 @@
         <v>400</v>
       </c>
       <c r="P59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q59" s="3">
         <v>300</v>
@@ -3031,40 +3168,43 @@
       <c r="R59" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E60" s="3">
         <v>5700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>8100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>11000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3700</v>
       </c>
-      <c r="L60" s="3">
-        <v>0</v>
-      </c>
       <c r="M60" s="3">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="N60" s="3">
         <v>1600</v>
@@ -3081,17 +3221,20 @@
       <c r="R60" s="3">
         <v>1600</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>300</v>
+      </c>
+      <c r="E61" s="3">
         <v>400</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
@@ -3108,11 +3251,11 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>1700</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -3131,28 +3274,31 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
         <v>100</v>
-      </c>
-      <c r="E62" s="3">
-        <v>200</v>
       </c>
       <c r="F62" s="3">
         <v>200</v>
       </c>
       <c r="G62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H62" s="3">
         <v>300</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>5</v>
+      <c r="I62" s="3">
+        <v>300</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>5</v>
@@ -3166,8 +3312,8 @@
       <c r="M62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -3181,8 +3327,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3380,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3433,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,40 +3486,43 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E66" s="3">
         <v>6200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>11300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5400</v>
       </c>
-      <c r="L66" s="3">
-        <v>0</v>
-      </c>
       <c r="M66" s="3">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="N66" s="3">
         <v>1600</v>
@@ -3381,8 +3539,11 @@
       <c r="R66" s="3">
         <v>1600</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3562,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3613,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3666,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3719,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,37 +3772,40 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-11300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-13300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-8100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-13200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-7300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-5200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-4500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-3600</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-11800</v>
       </c>
       <c r="M72" s="3">
         <v>-11800</v>
@@ -3640,7 +3814,7 @@
         <v>-11800</v>
       </c>
       <c r="O72" s="3">
-        <v>-11700</v>
+        <v>-11800</v>
       </c>
       <c r="P72" s="3">
         <v>-11700</v>
@@ -3651,8 +3825,11 @@
       <c r="R72" s="3">
         <v>-11700</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3">
+        <v>-11700</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3878,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3931,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,40 +3984,43 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="E76" s="3">
         <v>-5100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-7400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-4600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-10000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-4000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-4500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-3600</v>
       </c>
-      <c r="L76" s="3">
-        <v>0</v>
-      </c>
       <c r="M76" s="3">
-        <v>-1600</v>
+        <v>0</v>
       </c>
       <c r="N76" s="3">
         <v>-1600</v>
@@ -3851,8 +4037,11 @@
       <c r="R76" s="3">
         <v>-1600</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3">
+        <v>-1600</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,93 +4090,99 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E81" s="3">
         <v>2000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-5300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>5200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-5900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-600</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
         <v>0</v>
       </c>
@@ -4006,8 +4201,11 @@
       <c r="R81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,8 +4224,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4052,8 +4251,8 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>5</v>
+      <c r="K83" s="3">
+        <v>0</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>5</v>
@@ -4061,8 +4260,8 @@
       <c r="M83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
+      <c r="N83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
@@ -4076,8 +4275,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4328,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4381,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4434,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4487,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,38 +4540,41 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1500</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
         <v>0</v>
       </c>
@@ -4376,8 +4593,11 @@
       <c r="R89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,8 +4616,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4446,8 +4667,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4720,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,8 +4773,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4596,8 +4826,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4849,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4900,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4953,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5006,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,38 +5059,41 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E100" s="3">
         <v>400</v>
       </c>
       <c r="F100" s="3">
+        <v>400</v>
+      </c>
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1400</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>1100</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
@@ -4866,8 +5112,11 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4916,38 +5165,41 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>100</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-200</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
@@ -4964,6 +5216,9 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/JKSM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JKSM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="92">
   <si>
     <t>JKSM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,121 +665,128 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>700</v>
+        <v>1800</v>
       </c>
       <c r="E8" s="3">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="F8" s="3">
         <v>700</v>
       </c>
       <c r="G8" s="3">
+        <v>600</v>
+      </c>
+      <c r="H8" s="3">
+        <v>700</v>
+      </c>
+      <c r="I8" s="3">
         <v>300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>1300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>1300</v>
-      </c>
-      <c r="J8" s="3">
-        <v>1600</v>
-      </c>
-      <c r="K8" s="3">
-        <v>1700</v>
       </c>
       <c r="L8" s="3">
         <v>1600</v>
       </c>
       <c r="M8" s="3">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="N8" s="3">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="O8" s="3">
         <v>0</v>
@@ -796,16 +803,22 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>300</v>
+        <v>1300</v>
       </c>
       <c r="E9" s="3">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="F9" s="3">
         <v>300</v>
@@ -814,26 +827,26 @@
         <v>200</v>
       </c>
       <c r="H9" s="3">
+        <v>300</v>
+      </c>
+      <c r="I9" s="3">
+        <v>200</v>
+      </c>
+      <c r="J9" s="3">
         <v>800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>1400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>1100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>1500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>1200</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O9" s="3" t="s">
         <v>5</v>
       </c>
@@ -849,13 +862,19 @@
       <c r="S9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E10" s="3">
         <v>400</v>
@@ -864,29 +883,29 @@
         <v>400</v>
       </c>
       <c r="G10" s="3">
+        <v>400</v>
+      </c>
+      <c r="H10" s="3">
+        <v>400</v>
+      </c>
+      <c r="I10" s="3">
         <v>100</v>
-      </c>
-      <c r="H10" s="3">
-        <v>500</v>
-      </c>
-      <c r="I10" s="3">
-        <v>-100</v>
       </c>
       <c r="J10" s="3">
         <v>500</v>
       </c>
       <c r="K10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L10" s="3">
+        <v>500</v>
+      </c>
+      <c r="M10" s="3">
         <v>200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>400</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O10" s="3" t="s">
         <v>5</v>
       </c>
@@ -902,8 +921,14 @@
       <c r="S10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -923,8 +948,10 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -976,8 +1003,14 @@
       <c r="S12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1029,31 +1062,37 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>-400</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1082,8 +1121,14 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1135,8 +1180,14 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,44 +1204,46 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F17" s="3">
         <v>800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>3200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2200</v>
       </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
       <c r="O17" s="3">
         <v>0</v>
       </c>
@@ -1206,8 +1259,14 @@
       <c r="S17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>0</v>
+      </c>
+      <c r="U17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1215,35 +1274,35 @@
         <v>-100</v>
       </c>
       <c r="E18" s="3">
+        <v>300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
       <c r="G18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
         <v>-500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-1900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-600</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
       <c r="O18" s="3">
         <v>0</v>
       </c>
@@ -1259,8 +1318,14 @@
       <c r="S18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,35 +1345,37 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>400</v>
+      </c>
+      <c r="E20" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F20" s="3">
         <v>-2000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>2300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-3800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>6500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-5000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1333,43 +1400,49 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>300</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F21" s="3">
         <v>-2100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>2200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-3800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>6000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-5500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-2100</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-600</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-900</v>
       </c>
       <c r="L21" s="3">
         <v>-600</v>
       </c>
       <c r="M21" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="N21" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="O21" s="3">
         <v>0</v>
@@ -1386,32 +1459,38 @@
       <c r="S21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3">
+        <v>0</v>
+      </c>
+      <c r="U21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>300</v>
+      </c>
+      <c r="E22" s="3">
         <v>100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
+        <v>100</v>
+      </c>
+      <c r="G22" s="3">
         <v>200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>1500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>400</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
@@ -1439,44 +1518,50 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F23" s="3">
         <v>-2200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>2000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-5300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>5200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-5900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-2100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-600</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
         <v>0</v>
       </c>
@@ -1492,8 +1577,14 @@
       <c r="S23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1545,8 +1636,14 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,44 +1695,50 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F26" s="3">
         <v>-2200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>2000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-5300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>5200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-5900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-2100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-600</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
         <v>0</v>
       </c>
@@ -1651,44 +1754,50 @@
       <c r="S26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F27" s="3">
         <v>-2200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>2000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-5300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>5200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-5900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-2100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-600</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
         <v>0</v>
       </c>
@@ -1704,8 +1813,14 @@
       <c r="S27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,8 +1872,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1810,8 +1931,14 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1990,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,35 +2049,41 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F32" s="3">
         <v>2000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-2300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>3800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-6500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>5000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -1969,44 +2108,50 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F33" s="3">
         <v>-2200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>2000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-5300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>5200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-5900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-2100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-600</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
         <v>0</v>
       </c>
@@ -2022,8 +2167,14 @@
       <c r="S33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,44 +2226,50 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F35" s="3">
         <v>-2200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>2000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-5300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>5200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-5900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-2100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-600</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
         <v>0</v>
       </c>
@@ -2128,66 +2285,78 @@
       <c r="S35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2376,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,44 +2399,46 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>900</v>
+      </c>
+      <c r="E41" s="3">
+        <v>500</v>
+      </c>
+      <c r="F41" s="3">
         <v>600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1000</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
       <c r="O41" s="3">
         <v>0</v>
       </c>
@@ -2281,8 +2454,14 @@
       <c r="S41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2334,8 +2513,14 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2343,35 +2528,35 @@
         <v>300</v>
       </c>
       <c r="E43" s="3">
+        <v>300</v>
+      </c>
+      <c r="F43" s="3">
+        <v>300</v>
+      </c>
+      <c r="G43" s="3">
         <v>200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>100</v>
-      </c>
-      <c r="G43" s="3">
-        <v>100</v>
-      </c>
-      <c r="H43" s="3">
-        <v>300</v>
       </c>
       <c r="I43" s="3">
         <v>100</v>
       </c>
       <c r="J43" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="K43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
         <v>100</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>5</v>
       </c>
@@ -2387,8 +2572,14 @@
       <c r="S43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2408,23 +2599,23 @@
         <v>200</v>
       </c>
       <c r="I44" s="3">
+        <v>200</v>
+      </c>
+      <c r="J44" s="3">
+        <v>200</v>
+      </c>
+      <c r="K44" s="3">
         <v>100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>700</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N44" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O44" s="3" t="s">
         <v>5</v>
       </c>
@@ -2440,13 +2631,19 @@
       <c r="S44" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
@@ -2455,13 +2652,13 @@
         <v>100</v>
       </c>
       <c r="G45" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H45" s="3">
         <v>100</v>
       </c>
       <c r="I45" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="J45" s="3">
         <v>100</v>
@@ -2469,14 +2666,14 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>5</v>
+      <c r="L45" s="3">
+        <v>100</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
+      <c r="N45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
@@ -2487,50 +2684,56 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S45" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="E46" s="3">
         <v>1100</v>
       </c>
       <c r="F46" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H46" s="3">
         <v>900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1000</v>
-      </c>
-      <c r="H46" s="3">
-        <v>1300</v>
-      </c>
-      <c r="I46" s="3">
-        <v>1500</v>
       </c>
       <c r="J46" s="3">
         <v>1300</v>
       </c>
       <c r="K46" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L46" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M46" s="3">
         <v>1900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1800</v>
       </c>
-      <c r="M46" s="3">
-        <v>0</v>
-      </c>
-      <c r="N46" s="3">
-        <v>0</v>
-      </c>
       <c r="O46" s="3">
         <v>0</v>
       </c>
@@ -2546,8 +2749,14 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2599,8 +2808,14 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2631,11 +2846,11 @@
       <c r="L48" s="3">
         <v>0</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N48" s="3" t="s">
-        <v>5</v>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0</v>
       </c>
       <c r="O48" s="3" t="s">
         <v>5</v>
@@ -2652,8 +2867,14 @@
       <c r="S48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2705,8 +2926,14 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2985,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,28 +3044,34 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>5</v>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
       </c>
       <c r="J52" s="3">
         <v>0</v>
@@ -2843,8 +3082,8 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
+      <c r="M52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
@@ -2864,8 +3103,14 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,44 +3162,50 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="E54" s="3">
         <v>1100</v>
       </c>
       <c r="F54" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H54" s="3">
         <v>900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1800</v>
       </c>
-      <c r="M54" s="3">
-        <v>0</v>
-      </c>
-      <c r="N54" s="3">
-        <v>0</v>
-      </c>
       <c r="O54" s="3">
         <v>0</v>
       </c>
@@ -2970,8 +3221,14 @@
       <c r="S54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3">
+        <v>0</v>
+      </c>
+      <c r="U54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3248,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,13 +3271,15 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E57" s="3">
         <v>300</v>
@@ -3030,26 +3291,26 @@
         <v>300</v>
       </c>
       <c r="H57" s="3">
+        <v>300</v>
+      </c>
+      <c r="I57" s="3">
+        <v>300</v>
+      </c>
+      <c r="J57" s="3">
         <v>400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>100</v>
       </c>
-      <c r="M57" s="3">
-        <v>0</v>
-      </c>
-      <c r="N57" s="3">
-        <v>0</v>
-      </c>
       <c r="O57" s="3">
         <v>0</v>
       </c>
@@ -3065,46 +3326,52 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>900</v>
+      </c>
+      <c r="F58" s="3">
         <v>1200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>1000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>1100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>1200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>3300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>1600</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
-      <c r="N58" s="3">
-        <v>1200</v>
-      </c>
       <c r="O58" s="3">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="P58" s="3">
         <v>1200</v>
@@ -3118,99 +3385,111 @@
       <c r="S58" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>1200</v>
+      </c>
+      <c r="U58" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>6700</v>
+        <v>4800</v>
       </c>
       <c r="E59" s="3">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="F59" s="3">
         <v>6700</v>
       </c>
       <c r="G59" s="3">
+        <v>4500</v>
+      </c>
+      <c r="H59" s="3">
+        <v>6700</v>
+      </c>
+      <c r="I59" s="3">
         <v>3800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>10200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>5000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>2900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>2500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>2000</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
-      </c>
-      <c r="N59" s="3">
-        <v>400</v>
-      </c>
       <c r="O59" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="P59" s="3">
         <v>400</v>
       </c>
       <c r="Q59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="R59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="S59" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>300</v>
+      </c>
+      <c r="U59" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>8100</v>
+        <v>6000</v>
       </c>
       <c r="E60" s="3">
-        <v>5700</v>
+        <v>6700</v>
       </c>
       <c r="F60" s="3">
         <v>8100</v>
       </c>
       <c r="G60" s="3">
+        <v>5700</v>
+      </c>
+      <c r="H60" s="3">
+        <v>8100</v>
+      </c>
+      <c r="I60" s="3">
         <v>5400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>11000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>5200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>3300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>6400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>3700</v>
       </c>
-      <c r="M60" s="3">
-        <v>0</v>
-      </c>
-      <c r="N60" s="3">
-        <v>1600</v>
-      </c>
       <c r="O60" s="3">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="P60" s="3">
         <v>1600</v>
@@ -3224,23 +3503,29 @@
       <c r="S60" s="3">
         <v>1600</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>1600</v>
+      </c>
+      <c r="U60" s="3">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>100</v>
+      </c>
+      <c r="E61" s="3">
+        <v>100</v>
+      </c>
+      <c r="F61" s="3">
         <v>300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>400</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -3254,14 +3539,14 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>1700</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3277,35 +3562,41 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3">
+      <c r="D62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
         <v>100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>300</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>5</v>
       </c>
@@ -3315,11 +3606,11 @@
       <c r="N62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
-      </c>
-      <c r="P62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
@@ -3330,8 +3621,14 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3680,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3739,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,46 +3798,52 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>6800</v>
+      </c>
+      <c r="F66" s="3">
         <v>8400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>6200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>8300</v>
-      </c>
-      <c r="G66" s="3">
-        <v>5600</v>
-      </c>
-      <c r="H66" s="3">
-        <v>11300</v>
       </c>
       <c r="I66" s="3">
         <v>5600</v>
       </c>
       <c r="J66" s="3">
+        <v>11300</v>
+      </c>
+      <c r="K66" s="3">
+        <v>5600</v>
+      </c>
+      <c r="L66" s="3">
         <v>3300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>6400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>5400</v>
       </c>
-      <c r="M66" s="3">
-        <v>0</v>
-      </c>
-      <c r="N66" s="3">
-        <v>1600</v>
-      </c>
       <c r="O66" s="3">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="P66" s="3">
         <v>1600</v>
@@ -3542,8 +3857,14 @@
       <c r="S66" s="3">
         <v>1600</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3">
+        <v>1600</v>
+      </c>
+      <c r="U66" s="3">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3884,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3939,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3998,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3722,8 +4057,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,52 +4116,58 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="F72" s="3">
         <v>-13500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-11300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-13300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-8100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-13200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-7300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-5200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-4500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-3600</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-11800</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-11800</v>
       </c>
       <c r="O72" s="3">
         <v>-11800</v>
       </c>
       <c r="P72" s="3">
-        <v>-11700</v>
+        <v>-11800</v>
       </c>
       <c r="Q72" s="3">
-        <v>-11700</v>
+        <v>-11800</v>
       </c>
       <c r="R72" s="3">
         <v>-11700</v>
@@ -3828,8 +4175,14 @@
       <c r="S72" s="3">
         <v>-11700</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="U72" s="3">
+        <v>-11700</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4234,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4293,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,46 +4352,52 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="F76" s="3">
         <v>-7200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-5100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-7400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-4600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-10000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-4000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-1900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-4500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-3600</v>
       </c>
-      <c r="M76" s="3">
-        <v>0</v>
-      </c>
-      <c r="N76" s="3">
-        <v>-1600</v>
-      </c>
       <c r="O76" s="3">
-        <v>-1600</v>
+        <v>0</v>
       </c>
       <c r="P76" s="3">
         <v>-1600</v>
@@ -4040,8 +4411,14 @@
       <c r="S76" s="3">
         <v>-1600</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="U76" s="3">
+        <v>-1600</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,102 +4470,114 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F81" s="3">
         <v>-2200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>2000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-5300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>5200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-5900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-2100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-600</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
         <v>0</v>
       </c>
@@ -4204,8 +4593,14 @@
       <c r="S81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,8 +4620,10 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4254,20 +4651,20 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M83" s="3" t="s">
-        <v>5</v>
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
-      </c>
-      <c r="P83" s="3">
-        <v>0</v>
+      <c r="O83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
@@ -4278,8 +4675,14 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4734,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4793,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4852,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4911,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,44 +4970,50 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G89" s="3">
         <v>-300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-1500</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
         <v>0</v>
       </c>
@@ -4596,8 +5029,14 @@
       <c r="S89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,8 +5056,10 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4670,8 +5111,14 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +5170,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,8 +5229,14 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4829,8 +5288,14 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,8 +5315,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4903,8 +5370,14 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5429,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5488,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,44 +5547,50 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>600</v>
+      </c>
+      <c r="E100" s="3">
+        <v>100</v>
+      </c>
+      <c r="F100" s="3">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>1400</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>1100</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
@@ -5115,8 +5606,14 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5168,44 +5665,50 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>100</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-200</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
         <v>0</v>
       </c>
@@ -5219,6 +5722,12 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/JKSM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JKSM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
   <si>
     <t>JKSM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,132 +665,136 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E8" s="3">
         <v>1800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>300</v>
-      </c>
-      <c r="J8" s="3">
-        <v>1300</v>
       </c>
       <c r="K8" s="3">
         <v>1300</v>
       </c>
       <c r="L8" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M8" s="3">
         <v>1600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1600</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
       <c r="P8" s="3">
         <v>0</v>
       </c>
@@ -809,47 +813,50 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E9" s="3">
         <v>1300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1200</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P9" s="3" t="s">
         <v>5</v>
       </c>
@@ -868,8 +875,11 @@
       <c r="U9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -877,7 +887,7 @@
         <v>500</v>
       </c>
       <c r="E10" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="F10" s="3">
         <v>400</v>
@@ -889,26 +899,26 @@
         <v>400</v>
       </c>
       <c r="I10" s="3">
+        <v>400</v>
+      </c>
+      <c r="J10" s="3">
         <v>100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>400</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P10" s="3" t="s">
         <v>5</v>
       </c>
@@ -927,8 +937,11 @@
       <c r="U10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,8 +963,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1009,8 +1023,11 @@
       <c r="U12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,20 +1085,23 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E14" s="3">
         <v>100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-400</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>5</v>
       </c>
@@ -1094,8 +1114,8 @@
       <c r="J14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1127,8 +1147,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1186,8 +1209,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,47 +1232,48 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E17" s="3">
         <v>1900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>800</v>
-      </c>
-      <c r="G17" s="3">
-        <v>700</v>
       </c>
       <c r="H17" s="3">
         <v>700</v>
       </c>
       <c r="I17" s="3">
+        <v>700</v>
+      </c>
+      <c r="J17" s="3">
         <v>800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2200</v>
       </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
       <c r="P17" s="3">
         <v>0</v>
       </c>
@@ -1265,47 +1292,50 @@
       <c r="U17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
         <v>-100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>300</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-100</v>
       </c>
       <c r="G18" s="3">
         <v>-100</v>
       </c>
       <c r="H18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I18" s="3">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="J18" s="3">
         <v>-500</v>
       </c>
       <c r="K18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L18" s="3">
         <v>-1900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-600</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
       <c r="P18" s="3">
         <v>0</v>
       </c>
@@ -1324,8 +1354,11 @@
       <c r="U18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,38 +1380,39 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>500</v>
+      </c>
+      <c r="E20" s="3">
         <v>400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-3800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>6500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-5000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1406,47 +1440,50 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>500</v>
+      </c>
+      <c r="E21" s="3">
         <v>300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-3800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>6000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-5500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-600</v>
       </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
       <c r="P21" s="3">
         <v>0</v>
       </c>
@@ -1465,35 +1502,38 @@
       <c r="U21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>200</v>
+      </c>
+      <c r="E22" s="3">
         <v>300</v>
-      </c>
-      <c r="E22" s="3">
-        <v>100</v>
       </c>
       <c r="F22" s="3">
         <v>100</v>
       </c>
       <c r="G22" s="3">
+        <v>100</v>
+      </c>
+      <c r="H22" s="3">
         <v>200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>400</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
@@ -1524,47 +1564,50 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>2300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-5300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>5200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-5900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-600</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
       <c r="P23" s="3">
         <v>0</v>
       </c>
@@ -1583,8 +1626,11 @@
       <c r="U23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1642,8 +1688,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,47 +1750,50 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>2300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-5300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>5200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-5900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-600</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
       <c r="P26" s="3">
         <v>0</v>
       </c>
@@ -1760,47 +1812,50 @@
       <c r="U26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>2300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-5300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>5200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-5900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-600</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
       <c r="P27" s="3">
         <v>0</v>
       </c>
@@ -1819,8 +1874,11 @@
       <c r="U27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1936,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1937,8 +1998,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,38 +2122,41 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>3800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-6500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>5000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -2114,47 +2184,50 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>2300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-5300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>5200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-5900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-600</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
       <c r="P33" s="3">
         <v>0</v>
       </c>
@@ -2173,8 +2246,11 @@
       <c r="U33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,47 +2308,50 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>2300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-5300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>5200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-5900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-600</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
       <c r="P35" s="3">
         <v>0</v>
       </c>
@@ -2291,72 +2370,78 @@
       <c r="U35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,47 +2487,48 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>800</v>
+      </c>
+      <c r="E41" s="3">
         <v>900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>500</v>
-      </c>
-      <c r="F41" s="3">
-        <v>600</v>
       </c>
       <c r="G41" s="3">
         <v>600</v>
       </c>
       <c r="H41" s="3">
+        <v>600</v>
+      </c>
+      <c r="I41" s="3">
         <v>400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1000</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
       <c r="P41" s="3">
         <v>0</v>
       </c>
@@ -2460,8 +2547,11 @@
       <c r="U41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2519,8 +2609,11 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2534,32 +2627,32 @@
         <v>300</v>
       </c>
       <c r="G43" s="3">
+        <v>300</v>
+      </c>
+      <c r="H43" s="3">
         <v>200</v>
-      </c>
-      <c r="H43" s="3">
-        <v>100</v>
       </c>
       <c r="I43" s="3">
         <v>100</v>
       </c>
       <c r="J43" s="3">
+        <v>100</v>
+      </c>
+      <c r="K43" s="3">
         <v>300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>100</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
       <c r="M43" s="3">
         <v>0</v>
       </c>
       <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
         <v>100</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>5</v>
       </c>
@@ -2578,8 +2671,11 @@
       <c r="U43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2605,20 +2701,20 @@
         <v>200</v>
       </c>
       <c r="K44" s="3">
+        <v>200</v>
+      </c>
+      <c r="L44" s="3">
         <v>100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>700</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P44" s="3" t="s">
         <v>5</v>
       </c>
@@ -2637,8 +2733,11 @@
       <c r="U44" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2646,7 +2745,7 @@
         <v>0</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F45" s="3">
         <v>100</v>
@@ -2658,25 +2757,25 @@
         <v>100</v>
       </c>
       <c r="I45" s="3">
+        <v>100</v>
+      </c>
+      <c r="J45" s="3">
         <v>300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>100</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
       <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
         <v>100</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O45" s="3">
-        <v>0</v>
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
@@ -2690,53 +2789,56 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>5</v>
+      <c r="T45" s="3">
+        <v>0</v>
       </c>
       <c r="U45" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E46" s="3">
         <v>1500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1800</v>
       </c>
-      <c r="O46" s="3">
-        <v>0</v>
-      </c>
       <c r="P46" s="3">
         <v>0</v>
       </c>
@@ -2755,8 +2857,11 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2814,8 +2919,11 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2852,8 +2960,8 @@
       <c r="N48" s="3">
         <v>0</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>5</v>
+      <c r="O48" s="3">
+        <v>0</v>
       </c>
       <c r="P48" s="3" t="s">
         <v>5</v>
@@ -2873,8 +2981,11 @@
       <c r="U48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2932,8 +3043,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,8 +3167,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3076,17 +3196,17 @@
       <c r="J52" s="3">
         <v>0</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L52" s="3">
-        <v>0</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N52" s="3">
-        <v>0</v>
+      <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
@@ -3109,8 +3229,11 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,47 +3291,50 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E54" s="3">
         <v>1500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1800</v>
       </c>
-      <c r="O54" s="3">
-        <v>0</v>
-      </c>
       <c r="P54" s="3">
         <v>0</v>
       </c>
@@ -3227,8 +3353,11 @@
       <c r="U54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,16 +3403,17 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>300</v>
+      </c>
+      <c r="E57" s="3">
         <v>200</v>
-      </c>
-      <c r="E57" s="3">
-        <v>300</v>
       </c>
       <c r="F57" s="3">
         <v>300</v>
@@ -3297,23 +3428,23 @@
         <v>300</v>
       </c>
       <c r="J57" s="3">
+        <v>300</v>
+      </c>
+      <c r="K57" s="3">
         <v>400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>100</v>
       </c>
-      <c r="O57" s="3">
-        <v>0</v>
-      </c>
       <c r="P57" s="3">
         <v>0</v>
       </c>
@@ -3332,49 +3463,52 @@
       <c r="U57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>900</v>
+      </c>
+      <c r="E58" s="3">
         <v>1000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>400</v>
-      </c>
-      <c r="K58" s="3">
-        <v>100</v>
       </c>
       <c r="L58" s="3">
         <v>100</v>
       </c>
       <c r="M58" s="3">
+        <v>100</v>
+      </c>
+      <c r="N58" s="3">
         <v>3300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1600</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
       <c r="P58" s="3">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="Q58" s="3">
         <v>1200</v>
@@ -3391,49 +3525,52 @@
       <c r="U58" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E59" s="3">
         <v>4800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>5500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>6700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>6700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>10200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2000</v>
       </c>
-      <c r="O59" s="3">
-        <v>0</v>
-      </c>
       <c r="P59" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Q59" s="3">
         <v>400</v>
@@ -3442,7 +3579,7 @@
         <v>400</v>
       </c>
       <c r="S59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="T59" s="3">
         <v>300</v>
@@ -3450,49 +3587,52 @@
       <c r="U59" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E60" s="3">
         <v>6000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>8100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>8100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>11000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3700</v>
       </c>
-      <c r="O60" s="3">
-        <v>0</v>
-      </c>
       <c r="P60" s="3">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="Q60" s="3">
         <v>1600</v>
@@ -3509,8 +3649,11 @@
       <c r="U60" s="3">
         <v>1600</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3521,14 +3664,14 @@
         <v>100</v>
       </c>
       <c r="F61" s="3">
+        <v>100</v>
+      </c>
+      <c r="G61" s="3">
         <v>300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>400</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -3545,11 +3688,11 @@
         <v>0</v>
       </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>1700</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -3568,8 +3711,11 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3579,26 +3725,26 @@
       <c r="E62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F62" s="3">
-        <v>0</v>
+      <c r="F62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
         <v>100</v>
-      </c>
-      <c r="H62" s="3">
-        <v>200</v>
       </c>
       <c r="I62" s="3">
         <v>200</v>
       </c>
       <c r="J62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K62" s="3">
         <v>300</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>5</v>
+      <c r="L62" s="3">
+        <v>300</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>5</v>
@@ -3612,8 +3758,8 @@
       <c r="P62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
+      <c r="Q62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R62" s="3">
         <v>0</v>
@@ -3627,8 +3773,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,49 +3959,52 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E66" s="3">
         <v>6200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>11300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5400</v>
       </c>
-      <c r="O66" s="3">
-        <v>0</v>
-      </c>
       <c r="P66" s="3">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="Q66" s="3">
         <v>1600</v>
@@ -3863,8 +4021,11 @@
       <c r="U66" s="3">
         <v>1600</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,13 +4169,16 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E70" s="3">
         <v>0</v>
@@ -4063,8 +4231,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,46 +4293,49 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-11100</v>
+        <v>-10800</v>
       </c>
       <c r="E72" s="3">
         <v>-11100</v>
       </c>
       <c r="F72" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="G72" s="3">
         <v>-13500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-11300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-13300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-8100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-13200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-7300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-5200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-4500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-3600</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-11800</v>
       </c>
       <c r="P72" s="3">
         <v>-11800</v>
@@ -4170,7 +4344,7 @@
         <v>-11800</v>
       </c>
       <c r="R72" s="3">
-        <v>-11700</v>
+        <v>-11800</v>
       </c>
       <c r="S72" s="3">
         <v>-11700</v>
@@ -4181,8 +4355,11 @@
       <c r="U72" s="3">
         <v>-11700</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3">
+        <v>-11700</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,49 +4541,52 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E76" s="3">
         <v>-4700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-5700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-7200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-5100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-7400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-4600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-10000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-4000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-4500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-3600</v>
       </c>
-      <c r="O76" s="3">
-        <v>0</v>
-      </c>
       <c r="P76" s="3">
-        <v>-1600</v>
+        <v>0</v>
       </c>
       <c r="Q76" s="3">
         <v>-1600</v>
@@ -4417,8 +4603,11 @@
       <c r="U76" s="3">
         <v>-1600</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3">
+        <v>-1600</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,111 +4665,117 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>2300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-5300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>5200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-5900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-600</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
       <c r="P81" s="3">
         <v>0</v>
       </c>
@@ -4599,8 +4794,11 @@
       <c r="U81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,8 +4820,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4657,8 +4856,8 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>5</v>
+      <c r="N83" s="3">
+        <v>0</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>5</v>
@@ -4666,8 +4865,8 @@
       <c r="P83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
+      <c r="Q83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R83" s="3">
         <v>0</v>
@@ -4681,8 +4880,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,47 +5190,50 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-200</v>
       </c>
       <c r="F89" s="3">
         <v>-200</v>
       </c>
       <c r="G89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H89" s="3">
         <v>-300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1500</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
       <c r="P89" s="3">
         <v>0</v>
       </c>
@@ -5035,8 +5252,11 @@
       <c r="U89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,8 +5278,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5117,8 +5338,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,8 +5462,11 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5294,8 +5524,11 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5550,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5610,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,47 +5796,50 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
         <v>600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>300</v>
-      </c>
-      <c r="G100" s="3">
-        <v>400</v>
       </c>
       <c r="H100" s="3">
         <v>400</v>
       </c>
       <c r="I100" s="3">
+        <v>400</v>
+      </c>
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1400</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>1100</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
@@ -5612,8 +5858,11 @@
       <c r="U100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,47 +5920,50 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E102" s="3">
         <v>500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>100</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-200</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
         <v>0</v>
       </c>
@@ -5728,6 +5980,9 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/JKSM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JKSM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="92">
   <si>
     <t>JKSM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,139 +665,143 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E8" s="3">
         <v>1700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>300</v>
-      </c>
-      <c r="K8" s="3">
-        <v>1300</v>
       </c>
       <c r="L8" s="3">
         <v>1300</v>
       </c>
       <c r="M8" s="3">
+        <v>1300</v>
+      </c>
+      <c r="N8" s="3">
         <v>1600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1600</v>
       </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
       <c r="Q8" s="3">
         <v>0</v>
       </c>
@@ -816,50 +820,53 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E9" s="3">
         <v>1200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1200</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q9" s="3" t="s">
         <v>5</v>
       </c>
@@ -878,8 +885,11 @@
       <c r="V9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -890,7 +900,7 @@
         <v>500</v>
       </c>
       <c r="F10" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G10" s="3">
         <v>400</v>
@@ -902,26 +912,26 @@
         <v>400</v>
       </c>
       <c r="J10" s="3">
+        <v>400</v>
+      </c>
+      <c r="K10" s="3">
         <v>100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>400</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q10" s="3" t="s">
         <v>5</v>
       </c>
@@ -940,8 +950,11 @@
       <c r="V10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -964,8 +977,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1026,8 +1040,11 @@
       <c r="V12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,23 +1105,26 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>-300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-400</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>5</v>
       </c>
@@ -1117,8 +1137,8 @@
       <c r="K14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1150,8 +1170,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1212,8 +1235,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,50 +1259,51 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E17" s="3">
         <v>1700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>800</v>
-      </c>
-      <c r="H17" s="3">
-        <v>700</v>
       </c>
       <c r="I17" s="3">
         <v>700</v>
       </c>
       <c r="J17" s="3">
+        <v>700</v>
+      </c>
+      <c r="K17" s="3">
         <v>800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2200</v>
       </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
       <c r="Q17" s="3">
         <v>0</v>
       </c>
@@ -1295,8 +1322,11 @@
       <c r="V17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1304,41 +1334,41 @@
         <v>0</v>
       </c>
       <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>300</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-100</v>
       </c>
       <c r="H18" s="3">
         <v>-100</v>
       </c>
       <c r="I18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J18" s="3">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="K18" s="3">
         <v>-500</v>
       </c>
       <c r="L18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M18" s="3">
         <v>-1900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-600</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
       <c r="Q18" s="3">
         <v>0</v>
       </c>
@@ -1357,8 +1387,11 @@
       <c r="V18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,41 +1414,42 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3">
         <v>500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-3800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>6500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-5000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1443,50 +1477,53 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>100</v>
+      </c>
+      <c r="E21" s="3">
         <v>500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-3800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>6000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-5500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-600</v>
       </c>
-      <c r="P21" s="3">
-        <v>0</v>
-      </c>
       <c r="Q21" s="3">
         <v>0</v>
       </c>
@@ -1505,8 +1542,11 @@
       <c r="V21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1514,29 +1554,29 @@
         <v>200</v>
       </c>
       <c r="E22" s="3">
+        <v>200</v>
+      </c>
+      <c r="F22" s="3">
         <v>300</v>
-      </c>
-      <c r="F22" s="3">
-        <v>100</v>
       </c>
       <c r="G22" s="3">
         <v>100</v>
       </c>
       <c r="H22" s="3">
+        <v>100</v>
+      </c>
+      <c r="I22" s="3">
         <v>200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>400</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
@@ -1567,50 +1607,53 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E23" s="3">
         <v>300</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
       <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <v>2300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-5300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>5200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-5900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-600</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
       <c r="Q23" s="3">
         <v>0</v>
       </c>
@@ -1629,8 +1672,11 @@
       <c r="V23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1691,8 +1737,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,50 +1802,53 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E26" s="3">
         <v>300</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
       <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>2300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-5300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>5200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-5900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-600</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
       <c r="Q26" s="3">
         <v>0</v>
       </c>
@@ -1815,50 +1867,53 @@
       <c r="V26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E27" s="3">
         <v>300</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
       <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>2300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-5300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>5200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-5900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-600</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
       <c r="Q27" s="3">
         <v>0</v>
       </c>
@@ -1877,8 +1932,11 @@
       <c r="V27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +1997,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2001,8 +2062,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2127,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,41 +2192,44 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>3800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-6500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>5000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -2187,50 +2257,53 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E33" s="3">
         <v>300</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
       <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>2300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-5300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>5200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-5900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-600</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
       <c r="Q33" s="3">
         <v>0</v>
       </c>
@@ -2249,8 +2322,11 @@
       <c r="V33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,50 +2387,53 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E35" s="3">
         <v>300</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
       <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>2300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-5300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>5200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-5900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-600</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
       <c r="Q35" s="3">
         <v>0</v>
       </c>
@@ -2373,75 +2452,81 @@
       <c r="V35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2549,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,50 +2574,51 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>600</v>
+      </c>
+      <c r="E41" s="3">
         <v>800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>500</v>
-      </c>
-      <c r="G41" s="3">
-        <v>600</v>
       </c>
       <c r="H41" s="3">
         <v>600</v>
       </c>
       <c r="I41" s="3">
+        <v>600</v>
+      </c>
+      <c r="J41" s="3">
         <v>400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1000</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
       <c r="Q41" s="3">
         <v>0</v>
       </c>
@@ -2550,8 +2637,11 @@
       <c r="V41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2612,13 +2702,16 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="E43" s="3">
         <v>300</v>
@@ -2630,32 +2723,32 @@
         <v>300</v>
       </c>
       <c r="H43" s="3">
+        <v>300</v>
+      </c>
+      <c r="I43" s="3">
         <v>200</v>
-      </c>
-      <c r="I43" s="3">
-        <v>100</v>
       </c>
       <c r="J43" s="3">
         <v>100</v>
       </c>
       <c r="K43" s="3">
+        <v>100</v>
+      </c>
+      <c r="L43" s="3">
         <v>300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>100</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
-      </c>
       <c r="N43" s="3">
         <v>0</v>
       </c>
       <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
         <v>100</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q43" s="3" t="s">
         <v>5</v>
       </c>
@@ -2674,8 +2767,11 @@
       <c r="V43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2704,20 +2800,20 @@
         <v>200</v>
       </c>
       <c r="L44" s="3">
+        <v>200</v>
+      </c>
+      <c r="M44" s="3">
         <v>100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>700</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q44" s="3" t="s">
         <v>5</v>
       </c>
@@ -2736,8 +2832,11 @@
       <c r="V44" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2748,7 +2847,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G45" s="3">
         <v>100</v>
@@ -2760,25 +2859,25 @@
         <v>100</v>
       </c>
       <c r="J45" s="3">
+        <v>100</v>
+      </c>
+      <c r="K45" s="3">
         <v>300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>100</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
       <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
         <v>100</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
-      <c r="O45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P45" s="3">
-        <v>0</v>
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
@@ -2792,56 +2891,59 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>5</v>
+      <c r="U45" s="3">
+        <v>0</v>
       </c>
       <c r="V45" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E46" s="3">
         <v>1200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1800</v>
       </c>
-      <c r="P46" s="3">
-        <v>0</v>
-      </c>
       <c r="Q46" s="3">
         <v>0</v>
       </c>
@@ -2860,8 +2962,11 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2922,8 +3027,11 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2963,8 +3071,8 @@
       <c r="O48" s="3">
         <v>0</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>5</v>
+      <c r="P48" s="3">
+        <v>0</v>
       </c>
       <c r="Q48" s="3" t="s">
         <v>5</v>
@@ -2984,8 +3092,11 @@
       <c r="V48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3046,8 +3157,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3222,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,8 +3287,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3199,17 +3319,17 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M52" s="3">
-        <v>0</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O52" s="3">
-        <v>0</v>
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
@@ -3232,8 +3352,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,50 +3417,53 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E54" s="3">
         <v>1200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1800</v>
       </c>
-      <c r="P54" s="3">
-        <v>0</v>
-      </c>
       <c r="Q54" s="3">
         <v>0</v>
       </c>
@@ -3356,8 +3482,11 @@
       <c r="V54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3509,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,19 +3534,20 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>500</v>
+      </c>
+      <c r="E57" s="3">
         <v>300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>200</v>
-      </c>
-      <c r="F57" s="3">
-        <v>300</v>
       </c>
       <c r="G57" s="3">
         <v>300</v>
@@ -3431,23 +3562,23 @@
         <v>300</v>
       </c>
       <c r="K57" s="3">
+        <v>300</v>
+      </c>
+      <c r="L57" s="3">
         <v>400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>100</v>
       </c>
-      <c r="P57" s="3">
-        <v>0</v>
-      </c>
       <c r="Q57" s="3">
         <v>0</v>
       </c>
@@ -3466,52 +3597,55 @@
       <c r="V57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>700</v>
+      </c>
+      <c r="E58" s="3">
         <v>900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>400</v>
-      </c>
-      <c r="L58" s="3">
-        <v>100</v>
       </c>
       <c r="M58" s="3">
         <v>100</v>
       </c>
       <c r="N58" s="3">
+        <v>100</v>
+      </c>
+      <c r="O58" s="3">
         <v>3300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1600</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
       <c r="Q58" s="3">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="R58" s="3">
         <v>1200</v>
@@ -3528,52 +3662,55 @@
       <c r="V58" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E59" s="3">
         <v>4000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>5500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>6700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>6700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>10200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2000</v>
       </c>
-      <c r="P59" s="3">
-        <v>0</v>
-      </c>
       <c r="Q59" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="R59" s="3">
         <v>400</v>
@@ -3582,7 +3719,7 @@
         <v>400</v>
       </c>
       <c r="T59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="U59" s="3">
         <v>300</v>
@@ -3590,52 +3727,55 @@
       <c r="V59" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E60" s="3">
         <v>5100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>8100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>8100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>11000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3700</v>
       </c>
-      <c r="P60" s="3">
-        <v>0</v>
-      </c>
       <c r="Q60" s="3">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="R60" s="3">
         <v>1600</v>
@@ -3652,13 +3792,16 @@
       <c r="V60" s="3">
         <v>1600</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="E61" s="3">
         <v>100</v>
@@ -3667,14 +3810,14 @@
         <v>100</v>
       </c>
       <c r="G61" s="3">
+        <v>100</v>
+      </c>
+      <c r="H61" s="3">
         <v>300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>400</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -3691,11 +3834,11 @@
         <v>0</v>
       </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>1700</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -3714,8 +3857,11 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3728,26 +3874,26 @@
       <c r="F62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G62" s="3">
-        <v>0</v>
+      <c r="G62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
         <v>100</v>
-      </c>
-      <c r="I62" s="3">
-        <v>200</v>
       </c>
       <c r="J62" s="3">
         <v>200</v>
       </c>
       <c r="K62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L62" s="3">
         <v>300</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>5</v>
+      <c r="M62" s="3">
+        <v>300</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>5</v>
@@ -3761,8 +3907,8 @@
       <c r="Q62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
+      <c r="R62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
@@ -3776,8 +3922,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3987,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4052,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,52 +4117,55 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E66" s="3">
         <v>5300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>8300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>11300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5400</v>
       </c>
-      <c r="P66" s="3">
-        <v>0</v>
-      </c>
       <c r="Q66" s="3">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="R66" s="3">
         <v>1600</v>
@@ -4024,8 +4182,11 @@
       <c r="V66" s="3">
         <v>1600</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4209,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4272,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4337,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4181,7 +4349,7 @@
         <v>300</v>
       </c>
       <c r="E70" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F70" s="3">
         <v>0</v>
@@ -4234,8 +4402,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,49 +4467,52 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-10800</v>
-      </c>
-      <c r="E72" s="3">
-        <v>-11100</v>
       </c>
       <c r="F72" s="3">
         <v>-11100</v>
       </c>
       <c r="G72" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="H72" s="3">
         <v>-13500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-11300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-13300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-8100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-13200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-7300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-5200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-4500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-3600</v>
-      </c>
-      <c r="P72" s="3">
-        <v>-11800</v>
       </c>
       <c r="Q72" s="3">
         <v>-11800</v>
@@ -4347,7 +4521,7 @@
         <v>-11800</v>
       </c>
       <c r="S72" s="3">
-        <v>-11700</v>
+        <v>-11800</v>
       </c>
       <c r="T72" s="3">
         <v>-11700</v>
@@ -4358,8 +4532,11 @@
       <c r="V72" s="3">
         <v>-11700</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3">
+        <v>-11700</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4597,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4662,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,52 +4727,55 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E76" s="3">
         <v>-4300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-4700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-5700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-7200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-5100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-7400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-4600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-10000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-4000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-4500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-3600</v>
       </c>
-      <c r="P76" s="3">
-        <v>0</v>
-      </c>
       <c r="Q76" s="3">
-        <v>-1600</v>
+        <v>0</v>
       </c>
       <c r="R76" s="3">
         <v>-1600</v>
@@ -4606,8 +4792,11 @@
       <c r="V76" s="3">
         <v>-1600</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3">
+        <v>-1600</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,117 +4857,123 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E81" s="3">
         <v>300</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
       <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>2300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-5300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>5200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-5900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-600</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
       <c r="Q81" s="3">
         <v>0</v>
       </c>
@@ -4797,8 +4992,11 @@
       <c r="V81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,8 +5019,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4859,8 +5058,8 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>5</v>
+      <c r="O83" s="3">
+        <v>0</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>5</v>
@@ -4868,8 +5067,8 @@
       <c r="Q83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R83" s="3">
-        <v>0</v>
+      <c r="R83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S83" s="3">
         <v>0</v>
@@ -4883,8 +5082,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5147,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5212,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5277,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5342,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,50 +5407,53 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-100</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-200</v>
       </c>
       <c r="G89" s="3">
         <v>-200</v>
       </c>
       <c r="H89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I89" s="3">
         <v>-300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1500</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
       <c r="Q89" s="3">
         <v>0</v>
       </c>
@@ -5255,8 +5472,11 @@
       <c r="V89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,8 +5499,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5341,8 +5562,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5627,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,8 +5692,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5527,8 +5757,11 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +5784,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5613,8 +5847,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5912,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5977,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,50 +6042,53 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>300</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>300</v>
-      </c>
-      <c r="H100" s="3">
-        <v>400</v>
       </c>
       <c r="I100" s="3">
         <v>400</v>
       </c>
       <c r="J100" s="3">
+        <v>400</v>
+      </c>
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1400</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>1100</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
@@ -5861,8 +6107,11 @@
       <c r="V100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5923,50 +6172,53 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>100</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-200</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
         <v>0</v>
       </c>
@@ -5983,6 +6235,9 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/JKSM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JKSM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="92">
   <si>
     <t>JKSM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,146 +665,149 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E8" s="3">
         <v>1900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>300</v>
-      </c>
-      <c r="L8" s="3">
-        <v>1300</v>
       </c>
       <c r="M8" s="3">
         <v>1300</v>
       </c>
       <c r="N8" s="3">
+        <v>1300</v>
+      </c>
+      <c r="O8" s="3">
         <v>1600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1600</v>
       </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
       <c r="R8" s="3">
         <v>0</v>
       </c>
@@ -823,53 +826,56 @@
       <c r="W8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E9" s="3">
         <v>1400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1200</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R9" s="3" t="s">
         <v>5</v>
       </c>
@@ -888,13 +894,16 @@
       <c r="W9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E10" s="3">
         <v>500</v>
@@ -903,7 +912,7 @@
         <v>500</v>
       </c>
       <c r="G10" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="H10" s="3">
         <v>400</v>
@@ -915,26 +924,26 @@
         <v>400</v>
       </c>
       <c r="K10" s="3">
+        <v>400</v>
+      </c>
+      <c r="L10" s="3">
         <v>100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>400</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R10" s="3" t="s">
         <v>5</v>
       </c>
@@ -953,8 +962,11 @@
       <c r="W10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -978,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1043,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1108,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1117,17 +1136,17 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-400</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>5</v>
       </c>
@@ -1140,8 +1159,8 @@
       <c r="L14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1173,8 +1192,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1238,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1260,53 +1285,54 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E17" s="3">
         <v>1900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>800</v>
-      </c>
-      <c r="I17" s="3">
-        <v>700</v>
       </c>
       <c r="J17" s="3">
         <v>700</v>
       </c>
       <c r="K17" s="3">
+        <v>700</v>
+      </c>
+      <c r="L17" s="3">
         <v>800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2200</v>
       </c>
-      <c r="Q17" s="3">
-        <v>0</v>
-      </c>
       <c r="R17" s="3">
         <v>0</v>
       </c>
@@ -1325,53 +1351,56 @@
       <c r="W17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E18" s="3">
         <v>0</v>
       </c>
       <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>300</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-100</v>
       </c>
       <c r="I18" s="3">
         <v>-100</v>
       </c>
       <c r="J18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K18" s="3">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="L18" s="3">
         <v>-500</v>
       </c>
       <c r="M18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N18" s="3">
         <v>-1900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-600</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
       <c r="R18" s="3">
         <v>0</v>
       </c>
@@ -1390,8 +1419,11 @@
       <c r="W18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1415,44 +1447,45 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>200</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-3800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>6500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-5000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
@@ -1480,53 +1513,56 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E21" s="3">
         <v>100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-3800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>6000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-5500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-600</v>
       </c>
-      <c r="Q21" s="3">
-        <v>0</v>
-      </c>
       <c r="R21" s="3">
         <v>0</v>
       </c>
@@ -1545,41 +1581,44 @@
       <c r="W21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
         <v>200</v>
       </c>
       <c r="F22" s="3">
+        <v>200</v>
+      </c>
+      <c r="G22" s="3">
         <v>300</v>
-      </c>
-      <c r="G22" s="3">
-        <v>100</v>
       </c>
       <c r="H22" s="3">
         <v>100</v>
       </c>
       <c r="I22" s="3">
+        <v>100</v>
+      </c>
+      <c r="J22" s="3">
         <v>200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>400</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
@@ -1610,53 +1649,56 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>300</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
       <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
         <v>2300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-5300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>5200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-5900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-600</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
       <c r="R23" s="3">
         <v>0</v>
       </c>
@@ -1675,8 +1717,11 @@
       <c r="W23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1740,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1805,53 +1853,56 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>300</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
       <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
         <v>2300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-5300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>5200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-5900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-600</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
       <c r="R26" s="3">
         <v>0</v>
       </c>
@@ -1870,53 +1921,56 @@
       <c r="W26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>300</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
       <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
         <v>2300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-5300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>5200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-5900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-600</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
       <c r="R27" s="3">
         <v>0</v>
       </c>
@@ -1935,8 +1989,11 @@
       <c r="W27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2000,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2065,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2130,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2195,44 +2261,47 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>3800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-6500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>5000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
@@ -2260,53 +2329,56 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>300</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
       <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
         <v>2300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-5300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>5200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-5900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-600</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
       <c r="R33" s="3">
         <v>0</v>
       </c>
@@ -2325,8 +2397,11 @@
       <c r="W33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2390,53 +2465,56 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>300</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
       <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
         <v>2300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-5300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>5200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-5900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-600</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
       <c r="R35" s="3">
         <v>0</v>
       </c>
@@ -2455,78 +2533,84 @@
       <c r="W35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2550,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2575,53 +2660,54 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>300</v>
+      </c>
+      <c r="E41" s="3">
         <v>600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>500</v>
-      </c>
-      <c r="H41" s="3">
-        <v>600</v>
       </c>
       <c r="I41" s="3">
         <v>600</v>
       </c>
       <c r="J41" s="3">
+        <v>600</v>
+      </c>
+      <c r="K41" s="3">
         <v>400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1000</v>
       </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
       <c r="R41" s="3">
         <v>0</v>
       </c>
@@ -2640,8 +2726,11 @@
       <c r="W41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2705,8 +2794,11 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2714,7 +2806,7 @@
         <v>600</v>
       </c>
       <c r="E43" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="F43" s="3">
         <v>300</v>
@@ -2726,32 +2818,32 @@
         <v>300</v>
       </c>
       <c r="I43" s="3">
+        <v>300</v>
+      </c>
+      <c r="J43" s="3">
         <v>200</v>
-      </c>
-      <c r="J43" s="3">
-        <v>100</v>
       </c>
       <c r="K43" s="3">
         <v>100</v>
       </c>
       <c r="L43" s="3">
+        <v>100</v>
+      </c>
+      <c r="M43" s="3">
         <v>300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>100</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
-      </c>
       <c r="O43" s="3">
         <v>0</v>
       </c>
       <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
         <v>100</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R43" s="3" t="s">
         <v>5</v>
       </c>
@@ -2770,8 +2862,11 @@
       <c r="W43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2803,20 +2898,20 @@
         <v>200</v>
       </c>
       <c r="M44" s="3">
+        <v>200</v>
+      </c>
+      <c r="N44" s="3">
         <v>100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>700</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R44" s="3" t="s">
         <v>5</v>
       </c>
@@ -2835,8 +2930,11 @@
       <c r="W44" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2850,7 +2948,7 @@
         <v>0</v>
       </c>
       <c r="G45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H45" s="3">
         <v>100</v>
@@ -2862,25 +2960,25 @@
         <v>100</v>
       </c>
       <c r="K45" s="3">
+        <v>100</v>
+      </c>
+      <c r="L45" s="3">
         <v>300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>100</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
       <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
         <v>100</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
-      <c r="P45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>0</v>
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R45" s="3">
         <v>0</v>
@@ -2894,59 +2992,62 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>5</v>
+      <c r="V45" s="3">
+        <v>0</v>
       </c>
       <c r="W45" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E46" s="3">
         <v>1500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1800</v>
       </c>
-      <c r="Q46" s="3">
-        <v>0</v>
-      </c>
       <c r="R46" s="3">
         <v>0</v>
       </c>
@@ -2965,8 +3066,11 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3030,8 +3134,11 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3074,8 +3181,8 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>5</v>
+      <c r="Q48" s="3">
+        <v>0</v>
       </c>
       <c r="R48" s="3" t="s">
         <v>5</v>
@@ -3095,8 +3202,11 @@
       <c r="W48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3160,8 +3270,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3225,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3290,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3322,17 +3441,17 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N52" s="3">
-        <v>0</v>
-      </c>
-      <c r="O52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P52" s="3">
-        <v>0</v>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q52" s="3">
         <v>0</v>
@@ -3355,8 +3474,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3420,53 +3542,56 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E54" s="3">
         <v>1500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1800</v>
       </c>
-      <c r="Q54" s="3">
-        <v>0</v>
-      </c>
       <c r="R54" s="3">
         <v>0</v>
       </c>
@@ -3485,8 +3610,11 @@
       <c r="W54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3510,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3535,22 +3664,23 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>400</v>
+      </c>
+      <c r="E57" s="3">
         <v>500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>200</v>
-      </c>
-      <c r="G57" s="3">
-        <v>300</v>
       </c>
       <c r="H57" s="3">
         <v>300</v>
@@ -3565,23 +3695,23 @@
         <v>300</v>
       </c>
       <c r="L57" s="3">
+        <v>300</v>
+      </c>
+      <c r="M57" s="3">
         <v>400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>100</v>
       </c>
-      <c r="Q57" s="3">
-        <v>0</v>
-      </c>
       <c r="R57" s="3">
         <v>0</v>
       </c>
@@ -3600,55 +3730,58 @@
       <c r="W57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>800</v>
+      </c>
+      <c r="E58" s="3">
         <v>700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>400</v>
-      </c>
-      <c r="M58" s="3">
-        <v>100</v>
       </c>
       <c r="N58" s="3">
         <v>100</v>
       </c>
       <c r="O58" s="3">
+        <v>100</v>
+      </c>
+      <c r="P58" s="3">
         <v>3300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1600</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
-      </c>
       <c r="R58" s="3">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="S58" s="3">
         <v>1200</v>
@@ -3665,55 +3798,58 @@
       <c r="W58" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E59" s="3">
         <v>3700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>5500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>6700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>6700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>10200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2000</v>
       </c>
-      <c r="Q59" s="3">
-        <v>0</v>
-      </c>
       <c r="R59" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="S59" s="3">
         <v>400</v>
@@ -3722,7 +3858,7 @@
         <v>400</v>
       </c>
       <c r="U59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="V59" s="3">
         <v>300</v>
@@ -3730,55 +3866,58 @@
       <c r="W59" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E60" s="3">
         <v>4800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>8100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>8100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>11000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>6400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3700</v>
       </c>
-      <c r="Q60" s="3">
-        <v>0</v>
-      </c>
       <c r="R60" s="3">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="S60" s="3">
         <v>1600</v>
@@ -3795,16 +3934,19 @@
       <c r="W60" s="3">
         <v>1600</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>700</v>
+      </c>
+      <c r="E61" s="3">
         <v>800</v>
-      </c>
-      <c r="E61" s="3">
-        <v>100</v>
       </c>
       <c r="F61" s="3">
         <v>100</v>
@@ -3813,14 +3955,14 @@
         <v>100</v>
       </c>
       <c r="H61" s="3">
+        <v>100</v>
+      </c>
+      <c r="I61" s="3">
         <v>300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>400</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -3837,11 +3979,11 @@
         <v>0</v>
       </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>1700</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
@@ -3860,8 +4002,11 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3877,26 +4022,26 @@
       <c r="G62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H62" s="3">
-        <v>0</v>
+      <c r="H62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
         <v>100</v>
-      </c>
-      <c r="J62" s="3">
-        <v>200</v>
       </c>
       <c r="K62" s="3">
         <v>200</v>
       </c>
       <c r="L62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M62" s="3">
         <v>300</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>5</v>
+      <c r="N62" s="3">
+        <v>300</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>5</v>
@@ -3910,8 +4055,8 @@
       <c r="R62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
+      <c r="S62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T62" s="3">
         <v>0</v>
@@ -3925,8 +4070,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3990,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4055,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4120,55 +4274,58 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E66" s="3">
         <v>5700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>8300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>11300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5400</v>
       </c>
-      <c r="Q66" s="3">
-        <v>0</v>
-      </c>
       <c r="R66" s="3">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="S66" s="3">
         <v>1600</v>
@@ -4185,8 +4342,11 @@
       <c r="W66" s="3">
         <v>1600</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4210,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4275,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4340,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4352,7 +4519,7 @@
         <v>300</v>
       </c>
       <c r="F70" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -4405,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4470,52 +4640,55 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-10900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-10800</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-11100</v>
       </c>
       <c r="G72" s="3">
         <v>-11100</v>
       </c>
       <c r="H72" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="I72" s="3">
         <v>-13500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-11300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-13300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-8100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-13200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-7300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-5200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-4500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-3600</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-11800</v>
       </c>
       <c r="R72" s="3">
         <v>-11800</v>
@@ -4524,7 +4697,7 @@
         <v>-11800</v>
       </c>
       <c r="T72" s="3">
-        <v>-11700</v>
+        <v>-11800</v>
       </c>
       <c r="U72" s="3">
         <v>-11700</v>
@@ -4535,8 +4708,11 @@
       <c r="W72" s="3">
         <v>-11700</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3">
+        <v>-11700</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4600,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4665,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4730,55 +4912,58 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E76" s="3">
         <v>-4400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-4300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-4700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-5700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-7200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-5100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-7400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-4600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-10000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-4000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-4500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q76" s="3">
-        <v>0</v>
-      </c>
       <c r="R76" s="3">
-        <v>-1600</v>
+        <v>0</v>
       </c>
       <c r="S76" s="3">
         <v>-1600</v>
@@ -4795,8 +4980,11 @@
       <c r="W76" s="3">
         <v>-1600</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3">
+        <v>-1600</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4860,123 +5048,129 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>300</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
       <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
         <v>2300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-5300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>5200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-5900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-600</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
       <c r="R81" s="3">
         <v>0</v>
       </c>
@@ -4995,8 +5189,11 @@
       <c r="W81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5020,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5061,8 +5259,8 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>5</v>
+      <c r="P83" s="3">
+        <v>0</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>5</v>
@@ -5070,8 +5268,8 @@
       <c r="R83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S83" s="3">
-        <v>0</v>
+      <c r="S83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T83" s="3">
         <v>0</v>
@@ -5085,8 +5283,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5150,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5215,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5280,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5345,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5410,53 +5623,56 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-100</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-200</v>
       </c>
       <c r="H89" s="3">
         <v>-200</v>
       </c>
       <c r="I89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J89" s="3">
         <v>-300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
       <c r="R89" s="3">
         <v>0</v>
       </c>
@@ -5475,8 +5691,11 @@
       <c r="W89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5500,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5565,8 +5785,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5630,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5695,8 +5921,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5760,8 +5989,11 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5785,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5850,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5915,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5980,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6045,53 +6287,56 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>300</v>
-      </c>
-      <c r="I100" s="3">
-        <v>400</v>
       </c>
       <c r="J100" s="3">
         <v>400</v>
       </c>
       <c r="K100" s="3">
+        <v>400</v>
+      </c>
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1400</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>1100</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
@@ -6110,8 +6355,11 @@
       <c r="W100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6175,53 +6423,56 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>100</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-200</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
         <v>0</v>
       </c>
@@ -6238,6 +6489,9 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/JKSM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JKSM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
   <si>
     <t>JKSM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,154 +665,162 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F8" s="3">
         <v>1400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>1900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>1700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>1800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>1300</v>
-      </c>
-      <c r="I8" s="3">
-        <v>700</v>
-      </c>
-      <c r="J8" s="3">
-        <v>600</v>
       </c>
       <c r="K8" s="3">
         <v>700</v>
       </c>
       <c r="L8" s="3">
+        <v>600</v>
+      </c>
+      <c r="M8" s="3">
+        <v>700</v>
+      </c>
+      <c r="N8" s="3">
         <v>300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1300</v>
-      </c>
-      <c r="O8" s="3">
-        <v>1600</v>
-      </c>
-      <c r="P8" s="3">
-        <v>1700</v>
       </c>
       <c r="Q8" s="3">
         <v>1600</v>
       </c>
       <c r="R8" s="3">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="S8" s="3">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="T8" s="3">
         <v>0</v>
@@ -829,31 +837,37 @@
       <c r="X8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="E9" s="3">
         <v>1400</v>
       </c>
       <c r="F9" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H9" s="3">
         <v>1200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>1300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>900</v>
-      </c>
-      <c r="I9" s="3">
-        <v>300</v>
-      </c>
-      <c r="J9" s="3">
-        <v>200</v>
       </c>
       <c r="K9" s="3">
         <v>300</v>
@@ -862,26 +876,26 @@
         <v>200</v>
       </c>
       <c r="M9" s="3">
+        <v>300</v>
+      </c>
+      <c r="N9" s="3">
+        <v>200</v>
+      </c>
+      <c r="O9" s="3">
         <v>800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>1400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>1100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>1500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>1200</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T9" s="3" t="s">
         <v>5</v>
       </c>
@@ -897,28 +911,34 @@
       <c r="X9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>500</v>
+      </c>
+      <c r="E10" s="3">
+        <v>400</v>
+      </c>
+      <c r="F10" s="3">
         <v>300</v>
-      </c>
-      <c r="E10" s="3">
-        <v>500</v>
-      </c>
-      <c r="F10" s="3">
-        <v>500</v>
       </c>
       <c r="G10" s="3">
         <v>500</v>
       </c>
       <c r="H10" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="I10" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="J10" s="3">
         <v>400</v>
@@ -927,29 +947,29 @@
         <v>400</v>
       </c>
       <c r="L10" s="3">
+        <v>400</v>
+      </c>
+      <c r="M10" s="3">
+        <v>400</v>
+      </c>
+      <c r="N10" s="3">
         <v>100</v>
-      </c>
-      <c r="M10" s="3">
-        <v>500</v>
-      </c>
-      <c r="N10" s="3">
-        <v>-100</v>
       </c>
       <c r="O10" s="3">
         <v>500</v>
       </c>
       <c r="P10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>500</v>
+      </c>
+      <c r="R10" s="3">
         <v>200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>400</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T10" s="3" t="s">
         <v>5</v>
       </c>
@@ -965,8 +985,14 @@
       <c r="X10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1017,10 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1059,8 +1087,14 @@
       <c r="X12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1161,14 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1139,20 +1179,20 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>-400</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>5</v>
       </c>
@@ -1162,11 +1202,11 @@
       <c r="M14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1195,8 +1235,14 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1309,14 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,16 +1338,18 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="E17" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="F17" s="3">
         <v>1700</v>
@@ -1304,41 +1358,41 @@
         <v>1900</v>
       </c>
       <c r="H17" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J17" s="3">
         <v>1000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>3200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>2300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>2500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>2200</v>
       </c>
-      <c r="R17" s="3">
-        <v>0</v>
-      </c>
-      <c r="S17" s="3">
-        <v>0</v>
-      </c>
       <c r="T17" s="3">
         <v>0</v>
       </c>
@@ -1354,59 +1408,65 @@
       <c r="X17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
         <v>-300</v>
       </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
       <c r="G18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H18" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="I18" s="3">
         <v>-100</v>
       </c>
       <c r="J18" s="3">
+        <v>300</v>
+      </c>
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
       <c r="L18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>-500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-1900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-600</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
       <c r="T18" s="3">
         <v>0</v>
       </c>
@@ -1422,8 +1482,14 @@
       <c r="X18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,50 +1514,52 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>300</v>
+      </c>
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>2100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-2000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>2300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-3800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>6500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-5000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
@@ -1516,58 +1584,64 @@
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
+        <v>300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>2400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-2100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>2200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-3800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>6000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-5500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-2100</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-600</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-900</v>
       </c>
       <c r="Q21" s="3">
         <v>-600</v>
       </c>
       <c r="R21" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="S21" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="T21" s="3">
         <v>0</v>
@@ -1584,47 +1658,53 @@
       <c r="X21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>300</v>
+      </c>
+      <c r="F22" s="3">
         <v>100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>1500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>400</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
@@ -1652,59 +1732,65 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>-200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>300</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
         <v>2300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-2200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>2000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-5300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>5200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-5900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-2100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-600</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
       <c r="T23" s="3">
         <v>0</v>
       </c>
@@ -1720,8 +1806,14 @@
       <c r="X23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1788,8 +1880,14 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,59 +1954,65 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>-200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>300</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>2300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-2200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>2000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-5300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>5200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-5900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-2100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-600</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
       <c r="T26" s="3">
         <v>0</v>
       </c>
@@ -1924,59 +2028,65 @@
       <c r="X26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>-200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>300</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>2300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-2200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>2000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-5300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>5200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-5900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-2100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-600</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
       <c r="T27" s="3">
         <v>0</v>
       </c>
@@ -1992,8 +2102,14 @@
       <c r="X27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2176,14 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2250,14 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2324,14 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,50 +2398,56 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-2100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>2000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-2300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>3800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-6500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>5000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
@@ -2332,59 +2472,65 @@
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>-200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>300</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>2300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-2200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>2000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-5300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>5200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-5900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-2100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-600</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
       <c r="T33" s="3">
         <v>0</v>
       </c>
@@ -2400,8 +2546,14 @@
       <c r="X33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,59 +2620,65 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>-200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>300</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>2300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-2200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>2000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-5300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>5200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-5900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-2100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-600</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
       <c r="T35" s="3">
         <v>0</v>
       </c>
@@ -2536,81 +2694,93 @@
       <c r="X35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2805,10 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,59 +2833,61 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>800</v>
+      </c>
+      <c r="F41" s="3">
         <v>300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>1200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>1100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>1000</v>
       </c>
-      <c r="R41" s="3">
-        <v>0</v>
-      </c>
-      <c r="S41" s="3">
-        <v>0</v>
-      </c>
       <c r="T41" s="3">
         <v>0</v>
       </c>
@@ -2729,8 +2903,14 @@
       <c r="X41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,22 +2977,28 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E43" s="3">
+        <v>900</v>
+      </c>
+      <c r="F43" s="3">
         <v>600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>600</v>
-      </c>
-      <c r="F43" s="3">
-        <v>300</v>
-      </c>
-      <c r="G43" s="3">
-        <v>300</v>
       </c>
       <c r="H43" s="3">
         <v>300</v>
@@ -2821,35 +3007,35 @@
         <v>300</v>
       </c>
       <c r="J43" s="3">
+        <v>300</v>
+      </c>
+      <c r="K43" s="3">
+        <v>300</v>
+      </c>
+      <c r="L43" s="3">
         <v>200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>100</v>
-      </c>
-      <c r="L43" s="3">
-        <v>100</v>
-      </c>
-      <c r="M43" s="3">
-        <v>300</v>
       </c>
       <c r="N43" s="3">
         <v>100</v>
       </c>
       <c r="O43" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="P43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
         <v>100</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S43" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T43" s="3" t="s">
         <v>5</v>
       </c>
@@ -2865,8 +3051,14 @@
       <c r="X43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2901,23 +3093,23 @@
         <v>200</v>
       </c>
       <c r="N44" s="3">
+        <v>200</v>
+      </c>
+      <c r="O44" s="3">
+        <v>200</v>
+      </c>
+      <c r="P44" s="3">
         <v>100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>700</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S44" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T44" s="3" t="s">
         <v>5</v>
       </c>
@@ -2933,13 +3125,19 @@
       <c r="X44" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
@@ -2951,10 +3149,10 @@
         <v>0</v>
       </c>
       <c r="H45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J45" s="3">
         <v>100</v>
@@ -2963,13 +3161,13 @@
         <v>100</v>
       </c>
       <c r="L45" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="M45" s="3">
         <v>100</v>
       </c>
       <c r="N45" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="O45" s="3">
         <v>100</v>
@@ -2977,14 +3175,14 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>5</v>
+      <c r="Q45" s="3">
+        <v>100</v>
       </c>
       <c r="R45" s="3">
         <v>0</v>
       </c>
-      <c r="S45" s="3">
-        <v>0</v>
+      <c r="S45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T45" s="3">
         <v>0</v>
@@ -2995,65 +3193,71 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-      <c r="W45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X45" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F46" s="3">
         <v>1100</v>
-      </c>
-      <c r="E46" s="3">
-        <v>1500</v>
-      </c>
-      <c r="F46" s="3">
-        <v>1200</v>
       </c>
       <c r="G46" s="3">
         <v>1500</v>
       </c>
       <c r="H46" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="I46" s="3">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="J46" s="3">
         <v>1100</v>
       </c>
       <c r="K46" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M46" s="3">
         <v>900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1000</v>
-      </c>
-      <c r="M46" s="3">
-        <v>1300</v>
-      </c>
-      <c r="N46" s="3">
-        <v>1500</v>
       </c>
       <c r="O46" s="3">
         <v>1300</v>
       </c>
       <c r="P46" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>1300</v>
+      </c>
+      <c r="R46" s="3">
         <v>1900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1800</v>
       </c>
-      <c r="R46" s="3">
-        <v>0</v>
-      </c>
-      <c r="S46" s="3">
-        <v>0</v>
-      </c>
       <c r="T46" s="3">
         <v>0</v>
       </c>
@@ -3069,8 +3273,14 @@
       <c r="X46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,16 +3347,22 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F48" s="3">
         <v>0</v>
@@ -3184,11 +3400,11 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S48" s="3" t="s">
-        <v>5</v>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0</v>
       </c>
       <c r="T48" s="3" t="s">
         <v>5</v>
@@ -3205,8 +3421,14 @@
       <c r="X48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3273,8 +3495,14 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3569,14 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3643,14 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3444,8 +3684,8 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>5</v>
+      <c r="N52" s="3">
+        <v>0</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
@@ -3456,8 +3696,8 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-      <c r="R52" s="3">
-        <v>0</v>
+      <c r="R52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S52" s="3">
         <v>0</v>
@@ -3477,8 +3717,14 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,59 +3791,65 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F54" s="3">
         <v>1100</v>
-      </c>
-      <c r="E54" s="3">
-        <v>1500</v>
-      </c>
-      <c r="F54" s="3">
-        <v>1200</v>
       </c>
       <c r="G54" s="3">
         <v>1500</v>
       </c>
       <c r="H54" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="I54" s="3">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="J54" s="3">
         <v>1100</v>
       </c>
       <c r="K54" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M54" s="3">
         <v>900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1800</v>
       </c>
-      <c r="R54" s="3">
-        <v>0</v>
-      </c>
-      <c r="S54" s="3">
-        <v>0</v>
-      </c>
       <c r="T54" s="3">
         <v>0</v>
       </c>
@@ -3613,8 +3865,14 @@
       <c r="X54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3897,10 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,28 +3925,30 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>900</v>
+      </c>
+      <c r="E57" s="3">
+        <v>700</v>
+      </c>
+      <c r="F57" s="3">
         <v>400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>500</v>
-      </c>
-      <c r="F57" s="3">
-        <v>300</v>
-      </c>
-      <c r="G57" s="3">
-        <v>200</v>
       </c>
       <c r="H57" s="3">
         <v>300</v>
       </c>
       <c r="I57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J57" s="3">
         <v>300</v>
@@ -3698,26 +3960,26 @@
         <v>300</v>
       </c>
       <c r="M57" s="3">
+        <v>300</v>
+      </c>
+      <c r="N57" s="3">
+        <v>300</v>
+      </c>
+      <c r="O57" s="3">
         <v>400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>100</v>
       </c>
-      <c r="R57" s="3">
-        <v>0</v>
-      </c>
-      <c r="S57" s="3">
-        <v>0</v>
-      </c>
       <c r="T57" s="3">
         <v>0</v>
       </c>
@@ -3733,61 +3995,67 @@
       <c r="X57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>600</v>
+      </c>
+      <c r="E58" s="3">
+        <v>600</v>
+      </c>
+      <c r="F58" s="3">
         <v>800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>700</v>
-      </c>
-      <c r="F58" s="3">
-        <v>900</v>
-      </c>
-      <c r="G58" s="3">
-        <v>1000</v>
       </c>
       <c r="H58" s="3">
         <v>900</v>
       </c>
       <c r="I58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J58" s="3">
+        <v>900</v>
+      </c>
+      <c r="K58" s="3">
         <v>1200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>1000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>1200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>3300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>1600</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
-      </c>
-      <c r="S58" s="3">
-        <v>1200</v>
-      </c>
       <c r="T58" s="3">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="U58" s="3">
         <v>1200</v>
@@ -3801,76 +4069,88 @@
       <c r="X58" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Z58" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F59" s="3">
         <v>3500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>3700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>4000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>4800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>5500</v>
-      </c>
-      <c r="I59" s="3">
-        <v>6700</v>
-      </c>
-      <c r="J59" s="3">
-        <v>4500</v>
       </c>
       <c r="K59" s="3">
         <v>6700</v>
       </c>
       <c r="L59" s="3">
+        <v>4500</v>
+      </c>
+      <c r="M59" s="3">
+        <v>6700</v>
+      </c>
+      <c r="N59" s="3">
         <v>3800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>10200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>5000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>2900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>2500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>2000</v>
       </c>
-      <c r="R59" s="3">
-        <v>0</v>
-      </c>
-      <c r="S59" s="3">
-        <v>400</v>
-      </c>
       <c r="T59" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="U59" s="3">
         <v>400</v>
       </c>
       <c r="V59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="W59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="X59" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z59" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3878,52 +4158,52 @@
         <v>4700</v>
       </c>
       <c r="E60" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F60" s="3">
+        <v>4700</v>
+      </c>
+      <c r="G60" s="3">
         <v>4800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>5100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>6000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>6700</v>
-      </c>
-      <c r="I60" s="3">
-        <v>8100</v>
-      </c>
-      <c r="J60" s="3">
-        <v>5700</v>
       </c>
       <c r="K60" s="3">
         <v>8100</v>
       </c>
       <c r="L60" s="3">
+        <v>5700</v>
+      </c>
+      <c r="M60" s="3">
+        <v>8100</v>
+      </c>
+      <c r="N60" s="3">
         <v>5400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>11000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>5200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>3300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>6400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>3700</v>
       </c>
-      <c r="R60" s="3">
-        <v>0</v>
-      </c>
-      <c r="S60" s="3">
-        <v>1600</v>
-      </c>
       <c r="T60" s="3">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="U60" s="3">
         <v>1600</v>
@@ -3937,38 +4217,44 @@
       <c r="X60" s="3">
         <v>1600</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Z60" s="3">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>600</v>
+      </c>
+      <c r="E61" s="3">
+        <v>600</v>
+      </c>
+      <c r="F61" s="3">
         <v>700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>800</v>
-      </c>
-      <c r="F61" s="3">
-        <v>100</v>
-      </c>
-      <c r="G61" s="3">
-        <v>100</v>
       </c>
       <c r="H61" s="3">
         <v>100</v>
       </c>
       <c r="I61" s="3">
+        <v>100</v>
+      </c>
+      <c r="J61" s="3">
+        <v>100</v>
+      </c>
+      <c r="K61" s="3">
         <v>300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>400</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -3982,14 +4268,14 @@
         <v>0</v>
       </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>1700</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
@@ -4005,16 +4291,22 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>5</v>
+      <c r="D62" s="3">
+        <v>100</v>
+      </c>
+      <c r="E62" s="3">
+        <v>100</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>5</v>
@@ -4025,30 +4317,30 @@
       <c r="H62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
+      <c r="I62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3">
         <v>100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>300</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>5</v>
       </c>
@@ -4058,11 +4350,11 @@
       <c r="S62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T62" s="3">
-        <v>0</v>
-      </c>
-      <c r="U62" s="3">
-        <v>0</v>
+      <c r="T62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V62" s="3">
         <v>0</v>
@@ -4073,8 +4365,14 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4439,14 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4513,14 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,8 +4587,14 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4286,52 +4602,52 @@
         <v>5400</v>
       </c>
       <c r="E66" s="3">
+        <v>5400</v>
+      </c>
+      <c r="F66" s="3">
+        <v>5400</v>
+      </c>
+      <c r="G66" s="3">
         <v>5700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>5300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>6200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>6800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>8400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>6200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>8300</v>
-      </c>
-      <c r="L66" s="3">
-        <v>5600</v>
-      </c>
-      <c r="M66" s="3">
-        <v>11300</v>
       </c>
       <c r="N66" s="3">
         <v>5600</v>
       </c>
       <c r="O66" s="3">
+        <v>11300</v>
+      </c>
+      <c r="P66" s="3">
+        <v>5600</v>
+      </c>
+      <c r="Q66" s="3">
         <v>3300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>6400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>5400</v>
       </c>
-      <c r="R66" s="3">
-        <v>0</v>
-      </c>
-      <c r="S66" s="3">
-        <v>1600</v>
-      </c>
       <c r="T66" s="3">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="U66" s="3">
         <v>1600</v>
@@ -4345,8 +4661,14 @@
       <c r="X66" s="3">
         <v>1600</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Z66" s="3">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4693,10 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4763,14 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4837,14 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4522,10 +4858,10 @@
         <v>300</v>
       </c>
       <c r="G70" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H70" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -4575,8 +4911,14 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,8 +4985,14 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4652,58 +5000,58 @@
         <v>-11100</v>
       </c>
       <c r="E72" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="G72" s="3">
         <v>-10900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-10800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-11100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-11100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-13500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-11300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-13300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-8100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-13200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-7300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-5200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-3600</v>
-      </c>
-      <c r="R72" s="3">
-        <v>-11800</v>
-      </c>
-      <c r="S72" s="3">
-        <v>-11800</v>
       </c>
       <c r="T72" s="3">
         <v>-11800</v>
       </c>
       <c r="U72" s="3">
-        <v>-11700</v>
+        <v>-11800</v>
       </c>
       <c r="V72" s="3">
-        <v>-11700</v>
+        <v>-11800</v>
       </c>
       <c r="W72" s="3">
         <v>-11700</v>
@@ -4711,8 +5059,14 @@
       <c r="X72" s="3">
         <v>-11700</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="Z72" s="3">
+        <v>-11700</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +5133,14 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5207,14 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,61 +5281,67 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="F76" s="3">
         <v>-4500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-4400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-4300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-4700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-5700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-7200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-5100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-7400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-4600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-10000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-4000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-1900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-3600</v>
       </c>
-      <c r="R76" s="3">
-        <v>0</v>
-      </c>
-      <c r="S76" s="3">
-        <v>-1600</v>
-      </c>
       <c r="T76" s="3">
-        <v>-1600</v>
+        <v>0</v>
       </c>
       <c r="U76" s="3">
         <v>-1600</v>
@@ -4983,8 +5355,14 @@
       <c r="X76" s="3">
         <v>-1600</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="Z76" s="3">
+        <v>-1600</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,132 +5429,144 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>-200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>300</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>2300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-2200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>2000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-5300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>5200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-5900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-2100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-600</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
       <c r="T81" s="3">
         <v>0</v>
       </c>
@@ -5192,8 +5582,14 @@
       <c r="X81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5614,10 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5262,20 +5660,20 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R83" s="3" t="s">
-        <v>5</v>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
       </c>
       <c r="S83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T83" s="3">
-        <v>0</v>
-      </c>
-      <c r="U83" s="3">
-        <v>0</v>
+      <c r="T83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V83" s="3">
         <v>0</v>
@@ -5286,8 +5684,14 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5758,14 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5832,14 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5906,14 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5980,14 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,59 +6054,65 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-1500</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
       <c r="T89" s="3">
         <v>0</v>
       </c>
@@ -5694,8 +6128,14 @@
       <c r="X89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +6160,10 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5788,8 +6230,14 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6304,14 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6378,14 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5992,8 +6452,14 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6484,10 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6554,14 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6628,14 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6702,14 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,59 +6776,65 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E100" s="3">
+        <v>600</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>1400</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>1100</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
         <v>0</v>
       </c>
@@ -6358,8 +6850,14 @@
       <c r="X100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,59 +6924,65 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>500</v>
+      </c>
+      <c r="F102" s="3">
         <v>-300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>100</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-200</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
         <v>0</v>
       </c>
@@ -6492,6 +6996,12 @@
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/JKSM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JKSM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="92">
   <si>
     <t>JKSM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,166 +665,170 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>500</v>
+      </c>
+      <c r="E8" s="3">
         <v>1500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>300</v>
-      </c>
-      <c r="O8" s="3">
-        <v>1300</v>
       </c>
       <c r="P8" s="3">
         <v>1300</v>
       </c>
       <c r="Q8" s="3">
+        <v>1300</v>
+      </c>
+      <c r="R8" s="3">
         <v>1600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1600</v>
       </c>
-      <c r="T8" s="3">
-        <v>0</v>
-      </c>
       <c r="U8" s="3">
         <v>0</v>
       </c>
@@ -843,62 +847,65 @@
       <c r="Z8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>400</v>
+      </c>
+      <c r="E9" s="3">
         <v>1000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1200</v>
       </c>
-      <c r="T9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U9" s="3" t="s">
         <v>5</v>
       </c>
@@ -917,22 +924,25 @@
       <c r="Z9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>100</v>
+      </c>
+      <c r="E10" s="3">
         <v>500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>300</v>
-      </c>
-      <c r="G10" s="3">
-        <v>500</v>
       </c>
       <c r="H10" s="3">
         <v>500</v>
@@ -941,7 +951,7 @@
         <v>500</v>
       </c>
       <c r="J10" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K10" s="3">
         <v>400</v>
@@ -953,26 +963,26 @@
         <v>400</v>
       </c>
       <c r="N10" s="3">
+        <v>400</v>
+      </c>
+      <c r="O10" s="3">
         <v>100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>-100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>400</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U10" s="3" t="s">
         <v>5</v>
       </c>
@@ -991,8 +1001,11 @@
       <c r="Z10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1019,8 +1032,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1093,8 +1107,11 @@
       <c r="Z12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1167,8 +1184,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1185,17 +1205,17 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>-300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-400</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>5</v>
       </c>
@@ -1208,8 +1228,8 @@
       <c r="O14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1241,8 +1261,11 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1315,8 +1338,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1340,62 +1366,63 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>800</v>
+      </c>
+      <c r="E17" s="3">
         <v>1500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>800</v>
-      </c>
-      <c r="L17" s="3">
-        <v>700</v>
       </c>
       <c r="M17" s="3">
         <v>700</v>
       </c>
       <c r="N17" s="3">
+        <v>700</v>
+      </c>
+      <c r="O17" s="3">
         <v>800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2200</v>
       </c>
-      <c r="T17" s="3">
-        <v>0</v>
-      </c>
       <c r="U17" s="3">
         <v>0</v>
       </c>
@@ -1414,62 +1441,65 @@
       <c r="Z17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E18" s="3">
         <v>0</v>
       </c>
       <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
         <v>-300</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
       <c r="H18" s="3">
         <v>0</v>
       </c>
       <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>300</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-100</v>
       </c>
       <c r="L18" s="3">
         <v>-100</v>
       </c>
       <c r="M18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N18" s="3">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="O18" s="3">
         <v>-500</v>
       </c>
       <c r="P18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-600</v>
       </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
       <c r="U18" s="3">
         <v>0</v>
       </c>
@@ -1488,8 +1518,11 @@
       <c r="Z18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1516,53 +1549,54 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-3800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>6500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-5000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
@@ -1590,62 +1624,65 @@
       <c r="Z20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
         <v>300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-3800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>6000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-5500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-600</v>
       </c>
-      <c r="T21" s="3">
-        <v>0</v>
-      </c>
       <c r="U21" s="3">
         <v>0</v>
       </c>
@@ -1664,50 +1701,53 @@
       <c r="Z21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
         <v>300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>100</v>
-      </c>
-      <c r="G22" s="3">
-        <v>200</v>
       </c>
       <c r="H22" s="3">
         <v>200</v>
       </c>
       <c r="I22" s="3">
+        <v>200</v>
+      </c>
+      <c r="J22" s="3">
         <v>300</v>
-      </c>
-      <c r="J22" s="3">
-        <v>100</v>
       </c>
       <c r="K22" s="3">
         <v>100</v>
       </c>
       <c r="L22" s="3">
+        <v>100</v>
+      </c>
+      <c r="M22" s="3">
         <v>200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>400</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
       <c r="Q22" s="3">
         <v>0</v>
       </c>
@@ -1738,62 +1778,65 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
       </c>
       <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <v>-200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>300</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
       <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>2300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-5300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>5200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-5900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-600</v>
       </c>
-      <c r="T23" s="3">
-        <v>0</v>
-      </c>
       <c r="U23" s="3">
         <v>0</v>
       </c>
@@ -1812,8 +1855,11 @@
       <c r="Z23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1886,8 +1932,11 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1960,62 +2009,65 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
       </c>
       <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>-200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>300</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
       <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>2300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-5300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>5200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-5900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-600</v>
       </c>
-      <c r="T26" s="3">
-        <v>0</v>
-      </c>
       <c r="U26" s="3">
         <v>0</v>
       </c>
@@ -2034,62 +2086,65 @@
       <c r="Z26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-100</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
       <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>-200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>300</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>2300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-5300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>5200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-5900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-600</v>
       </c>
-      <c r="T27" s="3">
-        <v>0</v>
-      </c>
       <c r="U27" s="3">
         <v>0</v>
       </c>
@@ -2108,8 +2163,11 @@
       <c r="Z27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2182,8 +2240,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2256,8 +2317,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2330,8 +2394,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2404,53 +2471,56 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>3800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-6500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>5000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
@@ -2478,62 +2548,65 @@
       <c r="Z32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-100</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
       <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>-200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>300</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>2300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-5300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>5200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-5900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-600</v>
       </c>
-      <c r="T33" s="3">
-        <v>0</v>
-      </c>
       <c r="U33" s="3">
         <v>0</v>
       </c>
@@ -2552,8 +2625,11 @@
       <c r="Z33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2626,62 +2702,65 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-100</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
       <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>-200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>300</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>2300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-5300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>5200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-5900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-600</v>
       </c>
-      <c r="T35" s="3">
-        <v>0</v>
-      </c>
       <c r="U35" s="3">
         <v>0</v>
       </c>
@@ -2700,87 +2779,93 @@
       <c r="Z35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2807,8 +2892,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2835,62 +2921,63 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>300</v>
+      </c>
+      <c r="E41" s="3">
         <v>400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>500</v>
-      </c>
-      <c r="K41" s="3">
-        <v>600</v>
       </c>
       <c r="L41" s="3">
         <v>600</v>
       </c>
       <c r="M41" s="3">
+        <v>600</v>
+      </c>
+      <c r="N41" s="3">
         <v>400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1000</v>
       </c>
-      <c r="T41" s="3">
-        <v>0</v>
-      </c>
       <c r="U41" s="3">
         <v>0</v>
       </c>
@@ -2909,8 +2996,11 @@
       <c r="Z41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2983,25 +3073,28 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>900</v>
+      </c>
+      <c r="E43" s="3">
         <v>1300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>900</v>
-      </c>
-      <c r="F43" s="3">
-        <v>600</v>
       </c>
       <c r="G43" s="3">
         <v>600</v>
       </c>
       <c r="H43" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="I43" s="3">
         <v>300</v>
@@ -3013,32 +3106,32 @@
         <v>300</v>
       </c>
       <c r="L43" s="3">
+        <v>300</v>
+      </c>
+      <c r="M43" s="3">
         <v>200</v>
-      </c>
-      <c r="M43" s="3">
-        <v>100</v>
       </c>
       <c r="N43" s="3">
         <v>100</v>
       </c>
       <c r="O43" s="3">
+        <v>100</v>
+      </c>
+      <c r="P43" s="3">
         <v>300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>100</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
-      </c>
       <c r="R43" s="3">
         <v>0</v>
       </c>
       <c r="S43" s="3">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3">
         <v>100</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U43" s="3" t="s">
         <v>5</v>
       </c>
@@ -3057,8 +3150,11 @@
       <c r="Z43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3099,20 +3195,20 @@
         <v>200</v>
       </c>
       <c r="P44" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q44" s="3">
         <v>100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>700</v>
       </c>
-      <c r="T44" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U44" s="3" t="s">
         <v>5</v>
       </c>
@@ -3131,8 +3227,11 @@
       <c r="Z44" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3140,7 +3239,7 @@
         <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
@@ -3155,7 +3254,7 @@
         <v>0</v>
       </c>
       <c r="J45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K45" s="3">
         <v>100</v>
@@ -3167,25 +3266,25 @@
         <v>100</v>
       </c>
       <c r="N45" s="3">
+        <v>100</v>
+      </c>
+      <c r="O45" s="3">
         <v>300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>100</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
       <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
         <v>100</v>
       </c>
-      <c r="R45" s="3">
-        <v>0</v>
-      </c>
-      <c r="S45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T45" s="3">
-        <v>0</v>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U45" s="3">
         <v>0</v>
@@ -3199,68 +3298,71 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-      <c r="Y45" s="3" t="s">
-        <v>5</v>
+      <c r="Y45" s="3">
+        <v>0</v>
       </c>
       <c r="Z45" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1900</v>
+        <v>1500</v>
       </c>
       <c r="E46" s="3">
         <v>1900</v>
       </c>
       <c r="F46" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G46" s="3">
         <v>1100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1800</v>
       </c>
-      <c r="T46" s="3">
-        <v>0</v>
-      </c>
       <c r="U46" s="3">
         <v>0</v>
       </c>
@@ -3279,8 +3381,11 @@
       <c r="Z46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3353,8 +3458,11 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3365,7 +3473,7 @@
         <v>100</v>
       </c>
       <c r="F48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G48" s="3">
         <v>0</v>
@@ -3406,8 +3514,8 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>5</v>
+      <c r="T48" s="3">
+        <v>0</v>
       </c>
       <c r="U48" s="3" t="s">
         <v>5</v>
@@ -3427,8 +3535,11 @@
       <c r="Z48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3501,8 +3612,11 @@
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3575,8 +3689,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3649,8 +3766,11 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3690,17 +3810,17 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>0</v>
-      </c>
-      <c r="R52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S52" s="3">
-        <v>0</v>
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T52" s="3">
         <v>0</v>
@@ -3723,8 +3843,11 @@
       <c r="Z52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3797,62 +3920,65 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="E54" s="3">
         <v>2000</v>
       </c>
       <c r="F54" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G54" s="3">
         <v>1100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1800</v>
       </c>
-      <c r="T54" s="3">
-        <v>0</v>
-      </c>
       <c r="U54" s="3">
         <v>0</v>
       </c>
@@ -3871,8 +3997,11 @@
       <c r="Z54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3899,8 +4028,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3927,31 +4057,32 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>800</v>
+      </c>
+      <c r="E57" s="3">
         <v>900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>200</v>
-      </c>
-      <c r="J57" s="3">
-        <v>300</v>
       </c>
       <c r="K57" s="3">
         <v>300</v>
@@ -3966,23 +4097,23 @@
         <v>300</v>
       </c>
       <c r="O57" s="3">
+        <v>300</v>
+      </c>
+      <c r="P57" s="3">
         <v>400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>100</v>
       </c>
-      <c r="T57" s="3">
-        <v>0</v>
-      </c>
       <c r="U57" s="3">
         <v>0</v>
       </c>
@@ -4001,8 +4132,11 @@
       <c r="Z57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4013,52 +4147,52 @@
         <v>600</v>
       </c>
       <c r="F58" s="3">
+        <v>600</v>
+      </c>
+      <c r="G58" s="3">
         <v>800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>400</v>
-      </c>
-      <c r="P58" s="3">
-        <v>100</v>
       </c>
       <c r="Q58" s="3">
         <v>100</v>
       </c>
       <c r="R58" s="3">
+        <v>100</v>
+      </c>
+      <c r="S58" s="3">
         <v>3300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1600</v>
       </c>
-      <c r="T58" s="3">
-        <v>0</v>
-      </c>
       <c r="U58" s="3">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="V58" s="3">
         <v>1200</v>
@@ -4075,64 +4209,67 @@
       <c r="Z58" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E59" s="3">
         <v>3300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>5500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>6700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>10200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>5000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2000</v>
       </c>
-      <c r="T59" s="3">
-        <v>0</v>
-      </c>
       <c r="U59" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="V59" s="3">
         <v>400</v>
@@ -4141,7 +4278,7 @@
         <v>400</v>
       </c>
       <c r="X59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Y59" s="3">
         <v>300</v>
@@ -4149,13 +4286,16 @@
       <c r="Z59" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="E60" s="3">
         <v>4700</v>
@@ -4164,49 +4304,49 @@
         <v>4700</v>
       </c>
       <c r="G60" s="3">
+        <v>4700</v>
+      </c>
+      <c r="H60" s="3">
         <v>4800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>6000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>8100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>8100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>11000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>6400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3700</v>
       </c>
-      <c r="T60" s="3">
-        <v>0</v>
-      </c>
       <c r="U60" s="3">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="V60" s="3">
         <v>1600</v>
@@ -4223,8 +4363,11 @@
       <c r="Z60" s="3">
         <v>1600</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4235,13 +4378,13 @@
         <v>600</v>
       </c>
       <c r="F61" s="3">
+        <v>600</v>
+      </c>
+      <c r="G61" s="3">
         <v>700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>800</v>
-      </c>
-      <c r="H61" s="3">
-        <v>100</v>
       </c>
       <c r="I61" s="3">
         <v>100</v>
@@ -4250,14 +4393,14 @@
         <v>100</v>
       </c>
       <c r="K61" s="3">
+        <v>100</v>
+      </c>
+      <c r="L61" s="3">
         <v>300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>400</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -4274,11 +4417,11 @@
         <v>0</v>
       </c>
       <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
         <v>1700</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
         <v>0</v>
       </c>
@@ -4297,8 +4440,11 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4308,8 +4454,8 @@
       <c r="E62" s="3">
         <v>100</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>5</v>
+      <c r="F62" s="3">
+        <v>100</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>5</v>
@@ -4323,26 +4469,26 @@
       <c r="J62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
         <v>100</v>
-      </c>
-      <c r="M62" s="3">
-        <v>200</v>
       </c>
       <c r="N62" s="3">
         <v>200</v>
       </c>
       <c r="O62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P62" s="3">
         <v>300</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>5</v>
+      <c r="Q62" s="3">
+        <v>300</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>5</v>
@@ -4356,8 +4502,8 @@
       <c r="U62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V62" s="3">
-        <v>0</v>
+      <c r="V62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W62" s="3">
         <v>0</v>
@@ -4371,8 +4517,11 @@
       <c r="Z62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4445,8 +4594,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4519,8 +4671,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4593,13 +4748,16 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5400</v>
+        <v>5200</v>
       </c>
       <c r="E66" s="3">
         <v>5400</v>
@@ -4608,49 +4766,49 @@
         <v>5400</v>
       </c>
       <c r="G66" s="3">
+        <v>5400</v>
+      </c>
+      <c r="H66" s="3">
         <v>5700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>8300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>11300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>5400</v>
       </c>
-      <c r="T66" s="3">
-        <v>0</v>
-      </c>
       <c r="U66" s="3">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="V66" s="3">
         <v>1600</v>
@@ -4667,8 +4825,11 @@
       <c r="Z66" s="3">
         <v>1600</v>
       </c>
-    </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA66" s="3">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4695,8 +4856,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4769,8 +4931,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4843,8 +5008,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4864,7 +5032,7 @@
         <v>300</v>
       </c>
       <c r="I70" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -4917,8 +5085,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4991,13 +5162,16 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-11100</v>
+        <v>-11500</v>
       </c>
       <c r="E72" s="3">
         <v>-11100</v>
@@ -5006,46 +5180,46 @@
         <v>-11100</v>
       </c>
       <c r="G72" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="H72" s="3">
         <v>-10900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-10800</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-11100</v>
       </c>
       <c r="J72" s="3">
         <v>-11100</v>
       </c>
       <c r="K72" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="L72" s="3">
         <v>-13500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-11300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-13300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-8100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-13200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-7300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-5200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-4500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-3600</v>
-      </c>
-      <c r="T72" s="3">
-        <v>-11800</v>
       </c>
       <c r="U72" s="3">
         <v>-11800</v>
@@ -5054,7 +5228,7 @@
         <v>-11800</v>
       </c>
       <c r="W72" s="3">
-        <v>-11700</v>
+        <v>-11800</v>
       </c>
       <c r="X72" s="3">
         <v>-11700</v>
@@ -5065,8 +5239,11 @@
       <c r="Z72" s="3">
         <v>-11700</v>
       </c>
-    </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA72" s="3">
+        <v>-11700</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5139,8 +5316,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5213,8 +5393,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5287,64 +5470,67 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-3600</v>
+        <v>-3900</v>
       </c>
       <c r="E76" s="3">
         <v>-3600</v>
       </c>
       <c r="F76" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="G76" s="3">
         <v>-4500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-4400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-4300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-4700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-5700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-7200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-5100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-7400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-4600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-10000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-4500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-3600</v>
       </c>
-      <c r="T76" s="3">
-        <v>0</v>
-      </c>
       <c r="U76" s="3">
-        <v>-1600</v>
+        <v>0</v>
       </c>
       <c r="V76" s="3">
         <v>-1600</v>
@@ -5361,8 +5547,11 @@
       <c r="Z76" s="3">
         <v>-1600</v>
       </c>
-    </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA76" s="3">
+        <v>-1600</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5435,141 +5624,147 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-100</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
       <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>-200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>300</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>2300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-5300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>5200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-5900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-600</v>
       </c>
-      <c r="T81" s="3">
-        <v>0</v>
-      </c>
       <c r="U81" s="3">
         <v>0</v>
       </c>
@@ -5588,8 +5783,11 @@
       <c r="Z81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5616,8 +5814,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5666,8 +5865,8 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>5</v>
+      <c r="S83" s="3">
+        <v>0</v>
       </c>
       <c r="T83" s="3" t="s">
         <v>5</v>
@@ -5675,8 +5874,8 @@
       <c r="U83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V83" s="3">
-        <v>0</v>
+      <c r="V83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W83" s="3">
         <v>0</v>
@@ -5690,8 +5889,11 @@
       <c r="Z83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5764,8 +5966,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5838,8 +6043,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5912,8 +6120,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5986,8 +6197,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6060,62 +6274,65 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-100</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-200</v>
       </c>
       <c r="K89" s="3">
         <v>-200</v>
       </c>
       <c r="L89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M89" s="3">
         <v>-300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1500</v>
       </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
       <c r="U89" s="3">
         <v>0</v>
       </c>
@@ -6134,8 +6351,11 @@
       <c r="Z89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6162,8 +6382,9 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6236,8 +6457,11 @@
       <c r="Z91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6310,8 +6534,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6384,8 +6611,11 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6458,8 +6688,11 @@
       <c r="Z94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6486,8 +6719,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6560,8 +6794,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6634,8 +6871,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6708,8 +6948,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6782,62 +7025,65 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>-100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>600</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>300</v>
-      </c>
-      <c r="L100" s="3">
-        <v>400</v>
       </c>
       <c r="M100" s="3">
         <v>400</v>
       </c>
       <c r="N100" s="3">
+        <v>400</v>
+      </c>
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1400</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>1100</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
         <v>0</v>
       </c>
@@ -6856,8 +7102,11 @@
       <c r="Z100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6930,62 +7179,65 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>100</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-200</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
       <c r="U102" s="3">
         <v>0</v>
       </c>
@@ -7002,6 +7254,9 @@
         <v>0</v>
       </c>
       <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/JKSM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JKSM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="92">
   <si>
     <t>JKSM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,173 +665,176 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>400</v>
+      </c>
+      <c r="E8" s="3">
         <v>500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>300</v>
-      </c>
-      <c r="P8" s="3">
-        <v>1300</v>
       </c>
       <c r="Q8" s="3">
         <v>1300</v>
       </c>
       <c r="R8" s="3">
+        <v>1300</v>
+      </c>
+      <c r="S8" s="3">
         <v>1600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1600</v>
       </c>
-      <c r="U8" s="3">
-        <v>0</v>
-      </c>
       <c r="V8" s="3">
         <v>0</v>
       </c>
@@ -850,65 +853,68 @@
       <c r="AA8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>500</v>
+      </c>
+      <c r="E9" s="3">
         <v>400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1200</v>
       </c>
-      <c r="U9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V9" s="3" t="s">
         <v>5</v>
       </c>
@@ -927,25 +933,28 @@
       <c r="AA9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E10" s="3">
         <v>100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>300</v>
-      </c>
-      <c r="H10" s="3">
-        <v>500</v>
       </c>
       <c r="I10" s="3">
         <v>500</v>
@@ -954,7 +963,7 @@
         <v>500</v>
       </c>
       <c r="K10" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L10" s="3">
         <v>400</v>
@@ -966,26 +975,26 @@
         <v>400</v>
       </c>
       <c r="O10" s="3">
+        <v>400</v>
+      </c>
+      <c r="P10" s="3">
         <v>100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>-100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>400</v>
       </c>
-      <c r="U10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V10" s="3" t="s">
         <v>5</v>
       </c>
@@ -1004,8 +1013,11 @@
       <c r="AA10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1033,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1110,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1187,8 +1203,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1208,17 +1227,17 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>-300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-400</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>5</v>
       </c>
@@ -1231,8 +1250,8 @@
       <c r="P14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1264,8 +1283,11 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1341,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1367,65 +1392,66 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E17" s="3">
         <v>800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>800</v>
-      </c>
-      <c r="M17" s="3">
-        <v>700</v>
       </c>
       <c r="N17" s="3">
         <v>700</v>
       </c>
       <c r="O17" s="3">
+        <v>700</v>
+      </c>
+      <c r="P17" s="3">
         <v>800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2200</v>
       </c>
-      <c r="U17" s="3">
-        <v>0</v>
-      </c>
       <c r="V17" s="3">
         <v>0</v>
       </c>
@@ -1444,65 +1470,68 @@
       <c r="AA17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-300</v>
       </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
       <c r="F18" s="3">
         <v>0</v>
       </c>
       <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
         <v>-300</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
       <c r="I18" s="3">
         <v>0</v>
       </c>
       <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>300</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-100</v>
       </c>
       <c r="M18" s="3">
         <v>-100</v>
       </c>
       <c r="N18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O18" s="3">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="P18" s="3">
         <v>-500</v>
       </c>
       <c r="Q18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R18" s="3">
         <v>-1900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-600</v>
       </c>
-      <c r="U18" s="3">
-        <v>0</v>
-      </c>
       <c r="V18" s="3">
         <v>0</v>
       </c>
@@ -1521,8 +1550,11 @@
       <c r="AA18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1550,56 +1582,57 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-3800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>6500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
@@ -1627,65 +1660,68 @@
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-300</v>
       </c>
-      <c r="E21" s="3">
-        <v>0</v>
-      </c>
       <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
         <v>300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-3800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>6000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-5500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-2100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-600</v>
       </c>
-      <c r="U21" s="3">
-        <v>0</v>
-      </c>
       <c r="V21" s="3">
         <v>0</v>
       </c>
@@ -1704,8 +1740,11 @@
       <c r="AA21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1713,44 +1752,44 @@
         <v>100</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
         <v>300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>100</v>
-      </c>
-      <c r="H22" s="3">
-        <v>200</v>
       </c>
       <c r="I22" s="3">
         <v>200</v>
       </c>
       <c r="J22" s="3">
+        <v>200</v>
+      </c>
+      <c r="K22" s="3">
         <v>300</v>
-      </c>
-      <c r="K22" s="3">
-        <v>100</v>
       </c>
       <c r="L22" s="3">
         <v>100</v>
       </c>
       <c r="M22" s="3">
+        <v>100</v>
+      </c>
+      <c r="N22" s="3">
         <v>200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>400</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
       <c r="R22" s="3">
         <v>0</v>
       </c>
@@ -1781,65 +1820,68 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-300</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
       <c r="F23" s="3">
         <v>0</v>
       </c>
       <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
         <v>-200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>300</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
         <v>2300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-5300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>5200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-5900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-600</v>
       </c>
-      <c r="U23" s="3">
-        <v>0</v>
-      </c>
       <c r="V23" s="3">
         <v>0</v>
       </c>
@@ -1858,8 +1900,11 @@
       <c r="AA23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1935,8 +1980,11 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2012,65 +2060,68 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-300</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
       <c r="F26" s="3">
         <v>0</v>
       </c>
       <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
         <v>-200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>300</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>2300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-5300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>5200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-5900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-600</v>
       </c>
-      <c r="U26" s="3">
-        <v>0</v>
-      </c>
       <c r="V26" s="3">
         <v>0</v>
       </c>
@@ -2089,65 +2140,68 @@
       <c r="AA26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
       <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
         <v>-200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>300</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>2300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-5300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>5200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-5900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-600</v>
       </c>
-      <c r="U27" s="3">
-        <v>0</v>
-      </c>
       <c r="V27" s="3">
         <v>0</v>
       </c>
@@ -2166,8 +2220,11 @@
       <c r="AA27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2243,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2320,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2397,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2474,56 +2540,59 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>3800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-6500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>5000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>100</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
@@ -2551,65 +2620,68 @@
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
       <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
         <v>-200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>300</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>2300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-5300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>5200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-5900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-600</v>
       </c>
-      <c r="U33" s="3">
-        <v>0</v>
-      </c>
       <c r="V33" s="3">
         <v>0</v>
       </c>
@@ -2628,8 +2700,11 @@
       <c r="AA33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2705,65 +2780,68 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
       <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
         <v>-200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>300</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>2300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-5300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>5200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-5900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-600</v>
       </c>
-      <c r="U35" s="3">
-        <v>0</v>
-      </c>
       <c r="V35" s="3">
         <v>0</v>
       </c>
@@ -2782,90 +2860,96 @@
       <c r="AA35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2893,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2922,65 +3007,66 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>500</v>
+      </c>
+      <c r="E41" s="3">
         <v>300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>500</v>
-      </c>
-      <c r="L41" s="3">
-        <v>600</v>
       </c>
       <c r="M41" s="3">
         <v>600</v>
       </c>
       <c r="N41" s="3">
+        <v>600</v>
+      </c>
+      <c r="O41" s="3">
         <v>400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1000</v>
       </c>
-      <c r="U41" s="3">
-        <v>0</v>
-      </c>
       <c r="V41" s="3">
         <v>0</v>
       </c>
@@ -2999,8 +3085,11 @@
       <c r="AA41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3076,28 +3165,31 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
         <v>900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>900</v>
-      </c>
-      <c r="G43" s="3">
-        <v>600</v>
       </c>
       <c r="H43" s="3">
         <v>600</v>
       </c>
       <c r="I43" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="J43" s="3">
         <v>300</v>
@@ -3109,32 +3201,32 @@
         <v>300</v>
       </c>
       <c r="M43" s="3">
+        <v>300</v>
+      </c>
+      <c r="N43" s="3">
         <v>200</v>
-      </c>
-      <c r="N43" s="3">
-        <v>100</v>
       </c>
       <c r="O43" s="3">
         <v>100</v>
       </c>
       <c r="P43" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q43" s="3">
         <v>300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>100</v>
       </c>
-      <c r="R43" s="3">
-        <v>0</v>
-      </c>
       <c r="S43" s="3">
         <v>0</v>
       </c>
       <c r="T43" s="3">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3">
         <v>100</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V43" s="3" t="s">
         <v>5</v>
       </c>
@@ -3153,8 +3245,11 @@
       <c r="AA43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3198,20 +3293,20 @@
         <v>200</v>
       </c>
       <c r="Q44" s="3">
+        <v>200</v>
+      </c>
+      <c r="R44" s="3">
         <v>100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>700</v>
       </c>
-      <c r="U44" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V44" s="3" t="s">
         <v>5</v>
       </c>
@@ -3230,19 +3325,22 @@
       <c r="AA44" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
@@ -3257,7 +3355,7 @@
         <v>0</v>
       </c>
       <c r="K45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L45" s="3">
         <v>100</v>
@@ -3269,25 +3367,25 @@
         <v>100</v>
       </c>
       <c r="O45" s="3">
+        <v>100</v>
+      </c>
+      <c r="P45" s="3">
         <v>300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>100</v>
       </c>
-      <c r="Q45" s="3">
-        <v>0</v>
-      </c>
       <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
         <v>100</v>
       </c>
-      <c r="S45" s="3">
-        <v>0</v>
-      </c>
-      <c r="T45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U45" s="3">
-        <v>0</v>
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V45" s="3">
         <v>0</v>
@@ -3301,71 +3399,74 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-      <c r="Z45" s="3" t="s">
-        <v>5</v>
+      <c r="Z45" s="3">
+        <v>0</v>
       </c>
       <c r="AA45" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>700</v>
+      </c>
+      <c r="E46" s="3">
         <v>1500</v>
-      </c>
-      <c r="E46" s="3">
-        <v>1900</v>
       </c>
       <c r="F46" s="3">
         <v>1900</v>
       </c>
       <c r="G46" s="3">
+        <v>1900</v>
+      </c>
+      <c r="H46" s="3">
         <v>1100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1800</v>
       </c>
-      <c r="U46" s="3">
-        <v>0</v>
-      </c>
       <c r="V46" s="3">
         <v>0</v>
       </c>
@@ -3384,8 +3485,11 @@
       <c r="AA46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3461,8 +3565,11 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3476,7 +3583,7 @@
         <v>100</v>
       </c>
       <c r="G48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H48" s="3">
         <v>0</v>
@@ -3517,8 +3624,8 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>5</v>
+      <c r="U48" s="3">
+        <v>0</v>
       </c>
       <c r="V48" s="3" t="s">
         <v>5</v>
@@ -3538,8 +3645,11 @@
       <c r="AA48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3615,8 +3725,11 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3692,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3769,8 +3885,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3813,17 +3932,17 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R52" s="3">
-        <v>0</v>
-      </c>
-      <c r="S52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T52" s="3">
-        <v>0</v>
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U52" s="3">
         <v>0</v>
@@ -3846,8 +3965,11 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3923,65 +4045,68 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>800</v>
+      </c>
+      <c r="E54" s="3">
         <v>1600</v>
-      </c>
-      <c r="E54" s="3">
-        <v>2000</v>
       </c>
       <c r="F54" s="3">
         <v>2000</v>
       </c>
       <c r="G54" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H54" s="3">
         <v>1100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1800</v>
       </c>
-      <c r="U54" s="3">
-        <v>0</v>
-      </c>
       <c r="V54" s="3">
         <v>0</v>
       </c>
@@ -4000,8 +4125,11 @@
       <c r="AA54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4029,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4058,34 +4187,35 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>200</v>
+      </c>
+      <c r="E57" s="3">
         <v>800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>200</v>
-      </c>
-      <c r="K57" s="3">
-        <v>300</v>
       </c>
       <c r="L57" s="3">
         <v>300</v>
@@ -4100,23 +4230,23 @@
         <v>300</v>
       </c>
       <c r="P57" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q57" s="3">
         <v>400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>100</v>
       </c>
-      <c r="U57" s="3">
-        <v>0</v>
-      </c>
       <c r="V57" s="3">
         <v>0</v>
       </c>
@@ -4135,8 +4265,11 @@
       <c r="AA57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4150,52 +4283,52 @@
         <v>600</v>
       </c>
       <c r="G58" s="3">
+        <v>600</v>
+      </c>
+      <c r="H58" s="3">
         <v>800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>400</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>100</v>
       </c>
       <c r="R58" s="3">
         <v>100</v>
       </c>
       <c r="S58" s="3">
+        <v>100</v>
+      </c>
+      <c r="T58" s="3">
         <v>3300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1600</v>
       </c>
-      <c r="U58" s="3">
-        <v>0</v>
-      </c>
       <c r="V58" s="3">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="W58" s="3">
         <v>1200</v>
@@ -4212,67 +4345,70 @@
       <c r="AA58" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E59" s="3">
         <v>3200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>6700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>6700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>10200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>5000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2000</v>
       </c>
-      <c r="U59" s="3">
-        <v>0</v>
-      </c>
       <c r="V59" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="W59" s="3">
         <v>400</v>
@@ -4281,7 +4417,7 @@
         <v>400</v>
       </c>
       <c r="Y59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Z59" s="3">
         <v>300</v>
@@ -4289,16 +4425,19 @@
       <c r="AA59" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E60" s="3">
         <v>4600</v>
-      </c>
-      <c r="E60" s="3">
-        <v>4700</v>
       </c>
       <c r="F60" s="3">
         <v>4700</v>
@@ -4307,49 +4446,49 @@
         <v>4700</v>
       </c>
       <c r="H60" s="3">
+        <v>4700</v>
+      </c>
+      <c r="I60" s="3">
         <v>4800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>8100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>8100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>11000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>6400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3700</v>
       </c>
-      <c r="U60" s="3">
-        <v>0</v>
-      </c>
       <c r="V60" s="3">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="W60" s="3">
         <v>1600</v>
@@ -4366,8 +4505,11 @@
       <c r="AA60" s="3">
         <v>1600</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4381,13 +4523,13 @@
         <v>600</v>
       </c>
       <c r="G61" s="3">
+        <v>600</v>
+      </c>
+      <c r="H61" s="3">
         <v>700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>800</v>
-      </c>
-      <c r="I61" s="3">
-        <v>100</v>
       </c>
       <c r="J61" s="3">
         <v>100</v>
@@ -4396,14 +4538,14 @@
         <v>100</v>
       </c>
       <c r="L61" s="3">
+        <v>100</v>
+      </c>
+      <c r="M61" s="3">
         <v>300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>400</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -4420,11 +4562,11 @@
         <v>0</v>
       </c>
       <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
         <v>1700</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
         <v>0</v>
       </c>
@@ -4443,13 +4585,16 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E62" s="3">
         <v>100</v>
@@ -4457,8 +4602,8 @@
       <c r="F62" s="3">
         <v>100</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>5</v>
+      <c r="G62" s="3">
+        <v>100</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>5</v>
@@ -4472,26 +4617,26 @@
       <c r="K62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
         <v>100</v>
-      </c>
-      <c r="N62" s="3">
-        <v>200</v>
       </c>
       <c r="O62" s="3">
         <v>200</v>
       </c>
       <c r="P62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q62" s="3">
         <v>300</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>5</v>
+      <c r="R62" s="3">
+        <v>300</v>
       </c>
       <c r="S62" s="3" t="s">
         <v>5</v>
@@ -4505,8 +4650,8 @@
       <c r="V62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W62" s="3">
-        <v>0</v>
+      <c r="W62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="X62" s="3">
         <v>0</v>
@@ -4520,8 +4665,11 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4597,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4674,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4751,16 +4905,19 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E66" s="3">
         <v>5200</v>
-      </c>
-      <c r="E66" s="3">
-        <v>5400</v>
       </c>
       <c r="F66" s="3">
         <v>5400</v>
@@ -4769,49 +4926,49 @@
         <v>5400</v>
       </c>
       <c r="H66" s="3">
+        <v>5400</v>
+      </c>
+      <c r="I66" s="3">
         <v>5700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>8300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>11300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>6400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>5400</v>
       </c>
-      <c r="U66" s="3">
-        <v>0</v>
-      </c>
       <c r="V66" s="3">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="W66" s="3">
         <v>1600</v>
@@ -4828,8 +4985,11 @@
       <c r="AA66" s="3">
         <v>1600</v>
       </c>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB66" s="3">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4857,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4934,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5011,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5035,7 +5202,7 @@
         <v>300</v>
       </c>
       <c r="J70" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -5088,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5165,16 +5335,19 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-11500</v>
-      </c>
-      <c r="E72" s="3">
-        <v>-11100</v>
       </c>
       <c r="F72" s="3">
         <v>-11100</v>
@@ -5183,46 +5356,46 @@
         <v>-11100</v>
       </c>
       <c r="H72" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="I72" s="3">
         <v>-10900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-10800</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-11100</v>
       </c>
       <c r="K72" s="3">
         <v>-11100</v>
       </c>
       <c r="L72" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="M72" s="3">
         <v>-13500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-11300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-13300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-8100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-13200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-7300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-5200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-4500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-3600</v>
-      </c>
-      <c r="U72" s="3">
-        <v>-11800</v>
       </c>
       <c r="V72" s="3">
         <v>-11800</v>
@@ -5231,7 +5404,7 @@
         <v>-11800</v>
       </c>
       <c r="X72" s="3">
-        <v>-11700</v>
+        <v>-11800</v>
       </c>
       <c r="Y72" s="3">
         <v>-11700</v>
@@ -5242,8 +5415,11 @@
       <c r="AA72" s="3">
         <v>-11700</v>
       </c>
-    </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB72" s="3">
+        <v>-11700</v>
+      </c>
+    </row>
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5319,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5396,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5473,67 +5655,70 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E76" s="3">
         <v>-3900</v>
-      </c>
-      <c r="E76" s="3">
-        <v>-3600</v>
       </c>
       <c r="F76" s="3">
         <v>-3600</v>
       </c>
       <c r="G76" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="H76" s="3">
         <v>-4500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-4400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-4300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-4700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-5700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-7200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-5100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-7400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-4600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-10000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-4000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-1900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-4500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-3600</v>
       </c>
-      <c r="U76" s="3">
-        <v>0</v>
-      </c>
       <c r="V76" s="3">
-        <v>-1600</v>
+        <v>0</v>
       </c>
       <c r="W76" s="3">
         <v>-1600</v>
@@ -5550,8 +5735,11 @@
       <c r="AA76" s="3">
         <v>-1600</v>
       </c>
-    </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB76" s="3">
+        <v>-1600</v>
+      </c>
+    </row>
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5627,147 +5815,153 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
       <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
         <v>-200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>300</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>2300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-5300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>5200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-5900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-600</v>
       </c>
-      <c r="U81" s="3">
-        <v>0</v>
-      </c>
       <c r="V81" s="3">
         <v>0</v>
       </c>
@@ -5786,8 +5980,11 @@
       <c r="AA81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5815,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5868,8 +6066,8 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>5</v>
+      <c r="T83" s="3">
+        <v>0</v>
       </c>
       <c r="U83" s="3" t="s">
         <v>5</v>
@@ -5877,8 +6075,8 @@
       <c r="V83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W83" s="3">
-        <v>0</v>
+      <c r="W83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="X83" s="3">
         <v>0</v>
@@ -5892,8 +6090,11 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5969,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6046,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6123,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6200,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6277,65 +6490,68 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-100</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-200</v>
       </c>
       <c r="L89" s="3">
         <v>-200</v>
       </c>
       <c r="M89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N89" s="3">
         <v>-300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-1500</v>
       </c>
-      <c r="U89" s="3">
-        <v>0</v>
-      </c>
       <c r="V89" s="3">
         <v>0</v>
       </c>
@@ -6354,8 +6570,11 @@
       <c r="AA89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6383,8 +6602,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6460,8 +6680,11 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6537,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6614,8 +6840,11 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6691,8 +6920,11 @@
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6720,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6797,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6874,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6951,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7028,8 +7270,11 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7037,56 +7282,56 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>-100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>600</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>300</v>
-      </c>
-      <c r="M100" s="3">
-        <v>400</v>
       </c>
       <c r="N100" s="3">
         <v>400</v>
       </c>
       <c r="O100" s="3">
+        <v>400</v>
+      </c>
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1400</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
         <v>0</v>
       </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>1100</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
         <v>0</v>
       </c>
@@ -7105,8 +7350,11 @@
       <c r="AA100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7182,65 +7430,68 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>100</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-200</v>
       </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
       <c r="V102" s="3">
         <v>0</v>
       </c>
@@ -7257,6 +7508,9 @@
         <v>0</v>
       </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/JKSM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JKSM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
   <si>
     <t>JKSM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,179 +665,183 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>600</v>
+      </c>
+      <c r="E8" s="3">
         <v>400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>300</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>1300</v>
       </c>
       <c r="R8" s="3">
         <v>1300</v>
       </c>
       <c r="S8" s="3">
+        <v>1300</v>
+      </c>
+      <c r="T8" s="3">
         <v>1600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1600</v>
       </c>
-      <c r="V8" s="3">
-        <v>0</v>
-      </c>
       <c r="W8" s="3">
         <v>0</v>
       </c>
@@ -856,68 +860,71 @@
       <c r="AB8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>400</v>
+      </c>
+      <c r="E9" s="3">
         <v>500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1200</v>
       </c>
-      <c r="V9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W9" s="3" t="s">
         <v>5</v>
       </c>
@@ -936,28 +943,31 @@
       <c r="AB9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>200</v>
+      </c>
+      <c r="E10" s="3">
         <v>-100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>300</v>
-      </c>
-      <c r="I10" s="3">
-        <v>500</v>
       </c>
       <c r="J10" s="3">
         <v>500</v>
@@ -966,7 +976,7 @@
         <v>500</v>
       </c>
       <c r="L10" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M10" s="3">
         <v>400</v>
@@ -978,26 +988,26 @@
         <v>400</v>
       </c>
       <c r="P10" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q10" s="3">
         <v>100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>-100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>400</v>
       </c>
-      <c r="V10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W10" s="3" t="s">
         <v>5</v>
       </c>
@@ -1016,8 +1026,11 @@
       <c r="AB10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1046,8 +1059,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1126,8 +1140,11 @@
       <c r="AB12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,8 +1223,11 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1230,17 +1250,17 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-400</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>5</v>
       </c>
@@ -1253,8 +1273,8 @@
       <c r="Q14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1286,8 +1306,11 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1366,8 +1389,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,68 +1419,69 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>600</v>
+      </c>
+      <c r="E17" s="3">
         <v>1100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>800</v>
-      </c>
-      <c r="N17" s="3">
-        <v>700</v>
       </c>
       <c r="O17" s="3">
         <v>700</v>
       </c>
       <c r="P17" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q17" s="3">
         <v>800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2200</v>
       </c>
-      <c r="V17" s="3">
-        <v>0</v>
-      </c>
       <c r="W17" s="3">
         <v>0</v>
       </c>
@@ -1473,68 +1500,71 @@
       <c r="AB17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
         <v>-700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-300</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
       <c r="G18" s="3">
         <v>0</v>
       </c>
       <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
         <v>-300</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
       <c r="J18" s="3">
         <v>0</v>
       </c>
       <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>300</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-100</v>
       </c>
       <c r="N18" s="3">
         <v>-100</v>
       </c>
       <c r="O18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P18" s="3">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="3">
         <v>-500</v>
       </c>
       <c r="R18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S18" s="3">
         <v>-1900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-600</v>
       </c>
-      <c r="V18" s="3">
-        <v>0</v>
-      </c>
       <c r="W18" s="3">
         <v>0</v>
       </c>
@@ -1553,8 +1583,11 @@
       <c r="AB18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,59 +1616,60 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-3800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>6500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-5000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
@@ -1663,68 +1697,71 @@
       <c r="AB20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-300</v>
       </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
       <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
         <v>300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-3800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>6000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-5500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-2100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-600</v>
       </c>
-      <c r="V21" s="3">
-        <v>0</v>
-      </c>
       <c r="W21" s="3">
         <v>0</v>
       </c>
@@ -1743,56 +1780,59 @@
       <c r="AB21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E22" s="3">
         <v>100</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
         <v>300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>100</v>
-      </c>
-      <c r="I22" s="3">
-        <v>200</v>
       </c>
       <c r="J22" s="3">
         <v>200</v>
       </c>
       <c r="K22" s="3">
+        <v>200</v>
+      </c>
+      <c r="L22" s="3">
         <v>300</v>
-      </c>
-      <c r="L22" s="3">
-        <v>100</v>
       </c>
       <c r="M22" s="3">
         <v>100</v>
       </c>
       <c r="N22" s="3">
+        <v>100</v>
+      </c>
+      <c r="O22" s="3">
         <v>200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>400</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
       <c r="S22" s="3">
         <v>0</v>
       </c>
@@ -1823,68 +1863,71 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-300</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
       <c r="G23" s="3">
         <v>0</v>
       </c>
       <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>-200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>300</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>2300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-5300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>5200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-5900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-600</v>
       </c>
-      <c r="V23" s="3">
-        <v>0</v>
-      </c>
       <c r="W23" s="3">
         <v>0</v>
       </c>
@@ -1903,8 +1946,11 @@
       <c r="AB23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1983,8 +2029,11 @@
       <c r="AB24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,68 +2112,71 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-300</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
       <c r="G26" s="3">
         <v>0</v>
       </c>
       <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>-200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>300</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>2300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-5300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>5200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-5900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-600</v>
       </c>
-      <c r="V26" s="3">
-        <v>0</v>
-      </c>
       <c r="W26" s="3">
         <v>0</v>
       </c>
@@ -2143,68 +2195,71 @@
       <c r="AB26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>-200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>300</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>2300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-5300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>5200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-5900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-600</v>
       </c>
-      <c r="V27" s="3">
-        <v>0</v>
-      </c>
       <c r="W27" s="3">
         <v>0</v>
       </c>
@@ -2223,8 +2278,11 @@
       <c r="AB27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2361,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2444,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2527,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,59 +2610,62 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E32" s="3">
         <v>400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>3800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-6500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>5000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>100</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
@@ -2623,68 +2693,71 @@
       <c r="AB32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>-200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>300</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>2300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-5300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>5200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-5900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-600</v>
       </c>
-      <c r="V33" s="3">
-        <v>0</v>
-      </c>
       <c r="W33" s="3">
         <v>0</v>
       </c>
@@ -2703,8 +2776,11 @@
       <c r="AB33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,68 +2859,71 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>-200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>300</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>2300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-5300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>5200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-5900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-600</v>
       </c>
-      <c r="V35" s="3">
-        <v>0</v>
-      </c>
       <c r="W35" s="3">
         <v>0</v>
       </c>
@@ -2863,93 +2942,99 @@
       <c r="AB35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3063,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,68 +3094,69 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>200</v>
+      </c>
+      <c r="E41" s="3">
         <v>500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>500</v>
-      </c>
-      <c r="M41" s="3">
-        <v>600</v>
       </c>
       <c r="N41" s="3">
         <v>600</v>
       </c>
       <c r="O41" s="3">
+        <v>600</v>
+      </c>
+      <c r="P41" s="3">
         <v>400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1000</v>
       </c>
-      <c r="V41" s="3">
-        <v>0</v>
-      </c>
       <c r="W41" s="3">
         <v>0</v>
       </c>
@@ -3088,8 +3175,11 @@
       <c r="AB41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3168,8 +3258,11 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3177,22 +3270,22 @@
         <v>0</v>
       </c>
       <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
         <v>900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>900</v>
-      </c>
-      <c r="H43" s="3">
-        <v>600</v>
       </c>
       <c r="I43" s="3">
         <v>600</v>
       </c>
       <c r="J43" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K43" s="3">
         <v>300</v>
@@ -3204,32 +3297,32 @@
         <v>300</v>
       </c>
       <c r="N43" s="3">
+        <v>300</v>
+      </c>
+      <c r="O43" s="3">
         <v>200</v>
-      </c>
-      <c r="O43" s="3">
-        <v>100</v>
       </c>
       <c r="P43" s="3">
         <v>100</v>
       </c>
       <c r="Q43" s="3">
+        <v>100</v>
+      </c>
+      <c r="R43" s="3">
         <v>300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>100</v>
       </c>
-      <c r="S43" s="3">
-        <v>0</v>
-      </c>
       <c r="T43" s="3">
         <v>0</v>
       </c>
       <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
         <v>100</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W43" s="3" t="s">
         <v>5</v>
       </c>
@@ -3248,8 +3341,11 @@
       <c r="AB43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3296,20 +3392,20 @@
         <v>200</v>
       </c>
       <c r="R44" s="3">
+        <v>200</v>
+      </c>
+      <c r="S44" s="3">
         <v>100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>700</v>
       </c>
-      <c r="V44" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W44" s="3" t="s">
         <v>5</v>
       </c>
@@ -3328,8 +3424,11 @@
       <c r="AB44" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3337,13 +3436,13 @@
         <v>0</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F45" s="3">
         <v>100</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
@@ -3358,7 +3457,7 @@
         <v>0</v>
       </c>
       <c r="L45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M45" s="3">
         <v>100</v>
@@ -3370,25 +3469,25 @@
         <v>100</v>
       </c>
       <c r="P45" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q45" s="3">
         <v>300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>100</v>
       </c>
-      <c r="R45" s="3">
-        <v>0</v>
-      </c>
       <c r="S45" s="3">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3">
         <v>100</v>
       </c>
-      <c r="T45" s="3">
-        <v>0</v>
-      </c>
-      <c r="U45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V45" s="3">
-        <v>0</v>
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W45" s="3">
         <v>0</v>
@@ -3402,74 +3501,77 @@
       <c r="Z45" s="3">
         <v>0</v>
       </c>
-      <c r="AA45" s="3" t="s">
-        <v>5</v>
+      <c r="AA45" s="3">
+        <v>0</v>
       </c>
       <c r="AB45" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>500</v>
+      </c>
+      <c r="E46" s="3">
         <v>700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1500</v>
-      </c>
-      <c r="F46" s="3">
-        <v>1900</v>
       </c>
       <c r="G46" s="3">
         <v>1900</v>
       </c>
       <c r="H46" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I46" s="3">
         <v>1100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1800</v>
       </c>
-      <c r="V46" s="3">
-        <v>0</v>
-      </c>
       <c r="W46" s="3">
         <v>0</v>
       </c>
@@ -3488,8 +3590,11 @@
       <c r="AB46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3568,8 +3673,11 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3586,7 +3694,7 @@
         <v>100</v>
       </c>
       <c r="H48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I48" s="3">
         <v>0</v>
@@ -3627,8 +3735,8 @@
       <c r="U48" s="3">
         <v>0</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>5</v>
+      <c r="V48" s="3">
+        <v>0</v>
       </c>
       <c r="W48" s="3" t="s">
         <v>5</v>
@@ -3648,8 +3756,11 @@
       <c r="AB48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3728,8 +3839,11 @@
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3922,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,8 +4005,11 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3935,17 +4055,17 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S52" s="3">
-        <v>0</v>
-      </c>
-      <c r="T52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U52" s="3">
-        <v>0</v>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V52" s="3">
         <v>0</v>
@@ -3968,8 +4088,11 @@
       <c r="AB52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,68 +4171,71 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>500</v>
+      </c>
+      <c r="E54" s="3">
         <v>800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1600</v>
-      </c>
-      <c r="F54" s="3">
-        <v>2000</v>
       </c>
       <c r="G54" s="3">
         <v>2000</v>
       </c>
       <c r="H54" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I54" s="3">
         <v>1100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1800</v>
       </c>
-      <c r="V54" s="3">
-        <v>0</v>
-      </c>
       <c r="W54" s="3">
         <v>0</v>
       </c>
@@ -4128,8 +4254,11 @@
       <c r="AB54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4287,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,8 +4318,9 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4197,28 +4328,28 @@
         <v>200</v>
       </c>
       <c r="E57" s="3">
+        <v>200</v>
+      </c>
+      <c r="F57" s="3">
         <v>800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>200</v>
-      </c>
-      <c r="L57" s="3">
-        <v>300</v>
       </c>
       <c r="M57" s="3">
         <v>300</v>
@@ -4233,23 +4364,23 @@
         <v>300</v>
       </c>
       <c r="Q57" s="3">
+        <v>300</v>
+      </c>
+      <c r="R57" s="3">
         <v>400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>100</v>
       </c>
-      <c r="V57" s="3">
-        <v>0</v>
-      </c>
       <c r="W57" s="3">
         <v>0</v>
       </c>
@@ -4268,8 +4399,11 @@
       <c r="AB57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4286,52 +4420,52 @@
         <v>600</v>
       </c>
       <c r="H58" s="3">
+        <v>600</v>
+      </c>
+      <c r="I58" s="3">
         <v>800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>400</v>
-      </c>
-      <c r="R58" s="3">
-        <v>100</v>
       </c>
       <c r="S58" s="3">
         <v>100</v>
       </c>
       <c r="T58" s="3">
+        <v>100</v>
+      </c>
+      <c r="U58" s="3">
         <v>3300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1600</v>
       </c>
-      <c r="V58" s="3">
-        <v>0</v>
-      </c>
       <c r="W58" s="3">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="X58" s="3">
         <v>1200</v>
@@ -4348,70 +4482,73 @@
       <c r="AB58" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E59" s="3">
         <v>4200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>6700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>6700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>10200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>5000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2000</v>
       </c>
-      <c r="V59" s="3">
-        <v>0</v>
-      </c>
       <c r="W59" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X59" s="3">
         <v>400</v>
@@ -4420,7 +4557,7 @@
         <v>400</v>
       </c>
       <c r="Z59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="AA59" s="3">
         <v>300</v>
@@ -4428,19 +4565,22 @@
       <c r="AB59" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E60" s="3">
         <v>5000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4600</v>
-      </c>
-      <c r="F60" s="3">
-        <v>4700</v>
       </c>
       <c r="G60" s="3">
         <v>4700</v>
@@ -4449,49 +4589,49 @@
         <v>4700</v>
       </c>
       <c r="I60" s="3">
+        <v>4700</v>
+      </c>
+      <c r="J60" s="3">
         <v>4800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>8100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>8100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>11000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>6400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3700</v>
       </c>
-      <c r="V60" s="3">
-        <v>0</v>
-      </c>
       <c r="W60" s="3">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="X60" s="3">
         <v>1600</v>
@@ -4508,8 +4648,11 @@
       <c r="AB60" s="3">
         <v>1600</v>
       </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4526,13 +4669,13 @@
         <v>600</v>
       </c>
       <c r="H61" s="3">
+        <v>600</v>
+      </c>
+      <c r="I61" s="3">
         <v>700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>800</v>
-      </c>
-      <c r="J61" s="3">
-        <v>100</v>
       </c>
       <c r="K61" s="3">
         <v>100</v>
@@ -4541,14 +4684,14 @@
         <v>100</v>
       </c>
       <c r="M61" s="3">
+        <v>100</v>
+      </c>
+      <c r="N61" s="3">
         <v>300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>400</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -4565,11 +4708,11 @@
         <v>0</v>
       </c>
       <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
         <v>1700</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
       <c r="W61" s="3">
         <v>0</v>
       </c>
@@ -4588,8 +4731,11 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4597,7 +4743,7 @@
         <v>0</v>
       </c>
       <c r="E62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F62" s="3">
         <v>100</v>
@@ -4605,8 +4751,8 @@
       <c r="G62" s="3">
         <v>100</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>5</v>
+      <c r="H62" s="3">
+        <v>100</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>5</v>
@@ -4620,26 +4766,26 @@
       <c r="L62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3">
         <v>100</v>
-      </c>
-      <c r="O62" s="3">
-        <v>200</v>
       </c>
       <c r="P62" s="3">
         <v>200</v>
       </c>
       <c r="Q62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="R62" s="3">
         <v>300</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>5</v>
+      <c r="S62" s="3">
+        <v>300</v>
       </c>
       <c r="T62" s="3" t="s">
         <v>5</v>
@@ -4653,8 +4799,8 @@
       <c r="W62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X62" s="3">
-        <v>0</v>
+      <c r="X62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Y62" s="3">
         <v>0</v>
@@ -4668,8 +4814,11 @@
       <c r="AB62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4897,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4980,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,19 +5063,22 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E66" s="3">
         <v>5700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5200</v>
-      </c>
-      <c r="F66" s="3">
-        <v>5400</v>
       </c>
       <c r="G66" s="3">
         <v>5400</v>
@@ -4929,49 +5087,49 @@
         <v>5400</v>
       </c>
       <c r="I66" s="3">
+        <v>5400</v>
+      </c>
+      <c r="J66" s="3">
         <v>5700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>8400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>8300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>11300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>6400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>5400</v>
       </c>
-      <c r="V66" s="3">
-        <v>0</v>
-      </c>
       <c r="W66" s="3">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="X66" s="3">
         <v>1600</v>
@@ -4988,8 +5146,11 @@
       <c r="AB66" s="3">
         <v>1600</v>
       </c>
-    </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC66" s="3">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5179,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5260,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5343,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5205,7 +5373,7 @@
         <v>300</v>
       </c>
       <c r="K70" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="L70" s="3">
         <v>0</v>
@@ -5258,8 +5426,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,19 +5509,22 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-12700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-11500</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-11100</v>
       </c>
       <c r="G72" s="3">
         <v>-11100</v>
@@ -5359,46 +5533,46 @@
         <v>-11100</v>
       </c>
       <c r="I72" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="J72" s="3">
         <v>-10900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-10800</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-11100</v>
       </c>
       <c r="L72" s="3">
         <v>-11100</v>
       </c>
       <c r="M72" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="N72" s="3">
         <v>-13500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-11300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-13300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-8100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-13200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-7300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-5200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-4500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-3600</v>
-      </c>
-      <c r="V72" s="3">
-        <v>-11800</v>
       </c>
       <c r="W72" s="3">
         <v>-11800</v>
@@ -5407,7 +5581,7 @@
         <v>-11800</v>
       </c>
       <c r="Y72" s="3">
-        <v>-11700</v>
+        <v>-11800</v>
       </c>
       <c r="Z72" s="3">
         <v>-11700</v>
@@ -5418,8 +5592,11 @@
       <c r="AB72" s="3">
         <v>-11700</v>
       </c>
-    </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC72" s="3">
+        <v>-11700</v>
+      </c>
+    </row>
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5675,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5758,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,8 +5841,11 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -5667,61 +5853,61 @@
         <v>-5100</v>
       </c>
       <c r="E76" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="F76" s="3">
         <v>-3900</v>
-      </c>
-      <c r="F76" s="3">
-        <v>-3600</v>
       </c>
       <c r="G76" s="3">
         <v>-3600</v>
       </c>
       <c r="H76" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="I76" s="3">
         <v>-4500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-4400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-4300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-4700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-5700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-7200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-5100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-7400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-10000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-4000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-1900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-4500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-3600</v>
       </c>
-      <c r="V76" s="3">
-        <v>0</v>
-      </c>
       <c r="W76" s="3">
-        <v>-1600</v>
+        <v>0</v>
       </c>
       <c r="X76" s="3">
         <v>-1600</v>
@@ -5738,8 +5924,11 @@
       <c r="AB76" s="3">
         <v>-1600</v>
       </c>
-    </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC76" s="3">
+        <v>-1600</v>
+      </c>
+    </row>
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,153 +6007,159 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>-200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>300</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>2300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-5300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>5200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-5900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-600</v>
       </c>
-      <c r="V81" s="3">
-        <v>0</v>
-      </c>
       <c r="W81" s="3">
         <v>0</v>
       </c>
@@ -5983,8 +6178,11 @@
       <c r="AB81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6211,9 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6069,8 +6268,8 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>5</v>
+      <c r="U83" s="3">
+        <v>0</v>
       </c>
       <c r="V83" s="3" t="s">
         <v>5</v>
@@ -6078,8 +6277,8 @@
       <c r="W83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X83" s="3">
-        <v>0</v>
+      <c r="X83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Y83" s="3">
         <v>0</v>
@@ -6093,8 +6292,11 @@
       <c r="AB83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6375,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6458,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6541,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6624,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,68 +6707,71 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E89" s="3">
         <v>200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-100</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-200</v>
       </c>
       <c r="M89" s="3">
         <v>-200</v>
       </c>
       <c r="N89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O89" s="3">
         <v>-300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-1500</v>
       </c>
-      <c r="V89" s="3">
-        <v>0</v>
-      </c>
       <c r="W89" s="3">
         <v>0</v>
       </c>
@@ -6573,8 +6790,11 @@
       <c r="AB89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,8 +6823,9 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6683,8 +6904,11 @@
       <c r="AB91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6987,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,8 +7070,11 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6923,8 +7153,11 @@
       <c r="AB94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7186,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7267,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7350,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7433,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,8 +7516,11 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7285,56 +7531,56 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>-100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>600</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>300</v>
-      </c>
-      <c r="N100" s="3">
-        <v>400</v>
       </c>
       <c r="O100" s="3">
         <v>400</v>
       </c>
       <c r="P100" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q100" s="3">
         <v>200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1400</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
         <v>0</v>
       </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>1100</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
       <c r="W100" s="3">
         <v>0</v>
       </c>
@@ -7353,8 +7599,11 @@
       <c r="AB100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,68 +7682,71 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E102" s="3">
         <v>200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>100</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-200</v>
       </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
       <c r="W102" s="3">
         <v>0</v>
       </c>
@@ -7511,6 +7763,9 @@
         <v>0</v>
       </c>
       <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/JKSM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JKSM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="92">
   <si>
     <t>JKSM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,186 +665,190 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>400</v>
+      </c>
+      <c r="E8" s="3">
         <v>600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>300</v>
-      </c>
-      <c r="R8" s="3">
-        <v>1300</v>
       </c>
       <c r="S8" s="3">
         <v>1300</v>
       </c>
       <c r="T8" s="3">
+        <v>1300</v>
+      </c>
+      <c r="U8" s="3">
         <v>1600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1600</v>
       </c>
-      <c r="W8" s="3">
-        <v>0</v>
-      </c>
       <c r="X8" s="3">
         <v>0</v>
       </c>
@@ -863,71 +867,74 @@
       <c r="AC8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>200</v>
+      </c>
+      <c r="E9" s="3">
         <v>400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1200</v>
       </c>
-      <c r="W9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X9" s="3" t="s">
         <v>5</v>
       </c>
@@ -946,8 +953,11 @@
       <c r="AC9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -955,22 +965,22 @@
         <v>200</v>
       </c>
       <c r="E10" s="3">
+        <v>200</v>
+      </c>
+      <c r="F10" s="3">
         <v>-100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>300</v>
-      </c>
-      <c r="J10" s="3">
-        <v>500</v>
       </c>
       <c r="K10" s="3">
         <v>500</v>
@@ -979,7 +989,7 @@
         <v>500</v>
       </c>
       <c r="M10" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N10" s="3">
         <v>400</v>
@@ -991,26 +1001,26 @@
         <v>400</v>
       </c>
       <c r="Q10" s="3">
+        <v>400</v>
+      </c>
+      <c r="R10" s="3">
         <v>100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>-100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>400</v>
       </c>
-      <c r="W10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X10" s="3" t="s">
         <v>5</v>
       </c>
@@ -1029,8 +1039,11 @@
       <c r="AC10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1060,8 +1073,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1143,8 +1157,11 @@
       <c r="AC12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1226,8 +1243,11 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1253,17 +1273,17 @@
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>-300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-400</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>5</v>
       </c>
@@ -1276,8 +1296,8 @@
       <c r="R14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
@@ -1309,8 +1329,11 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1392,8 +1415,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1420,71 +1446,72 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>400</v>
+      </c>
+      <c r="E17" s="3">
         <v>600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>800</v>
-      </c>
-      <c r="O17" s="3">
-        <v>700</v>
       </c>
       <c r="P17" s="3">
         <v>700</v>
       </c>
       <c r="Q17" s="3">
+        <v>700</v>
+      </c>
+      <c r="R17" s="3">
         <v>800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2200</v>
       </c>
-      <c r="W17" s="3">
-        <v>0</v>
-      </c>
       <c r="X17" s="3">
         <v>0</v>
       </c>
@@ -1503,8 +1530,11 @@
       <c r="AC17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1512,62 +1542,62 @@
         <v>0</v>
       </c>
       <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
         <v>-700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-300</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
       <c r="H18" s="3">
         <v>0</v>
       </c>
       <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>-300</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
       <c r="K18" s="3">
         <v>0</v>
       </c>
       <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>300</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-100</v>
       </c>
       <c r="O18" s="3">
         <v>-100</v>
       </c>
       <c r="P18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q18" s="3">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="R18" s="3">
         <v>-500</v>
       </c>
       <c r="S18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="T18" s="3">
         <v>-1900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-600</v>
       </c>
-      <c r="W18" s="3">
-        <v>0</v>
-      </c>
       <c r="X18" s="3">
         <v>0</v>
       </c>
@@ -1586,8 +1616,11 @@
       <c r="AC18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1617,62 +1650,63 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E20" s="3">
         <v>200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>6500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-5000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-100</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
@@ -1700,71 +1734,74 @@
       <c r="AC20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E21" s="3">
         <v>100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-300</v>
       </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
       <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
         <v>300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>6000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-5500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-2100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-600</v>
       </c>
-      <c r="W21" s="3">
-        <v>0</v>
-      </c>
       <c r="X21" s="3">
         <v>0</v>
       </c>
@@ -1783,59 +1820,62 @@
       <c r="AC21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F22" s="3">
         <v>100</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
         <v>300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>100</v>
-      </c>
-      <c r="J22" s="3">
-        <v>200</v>
       </c>
       <c r="K22" s="3">
         <v>200</v>
       </c>
       <c r="L22" s="3">
+        <v>200</v>
+      </c>
+      <c r="M22" s="3">
         <v>300</v>
-      </c>
-      <c r="M22" s="3">
-        <v>100</v>
       </c>
       <c r="N22" s="3">
         <v>100</v>
       </c>
       <c r="O22" s="3">
+        <v>100</v>
+      </c>
+      <c r="P22" s="3">
         <v>200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>400</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
       <c r="T22" s="3">
         <v>0</v>
       </c>
@@ -1866,71 +1906,74 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E23" s="3">
         <v>100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-300</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
         <v>0</v>
       </c>
       <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
         <v>-200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>300</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>2300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>5200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-5900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-600</v>
       </c>
-      <c r="W23" s="3">
-        <v>0</v>
-      </c>
       <c r="X23" s="3">
         <v>0</v>
       </c>
@@ -1949,8 +1992,11 @@
       <c r="AC23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2032,8 +2078,11 @@
       <c r="AC24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2115,71 +2164,74 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E26" s="3">
         <v>100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-300</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
         <v>0</v>
       </c>
       <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>-200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>300</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>2300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>5200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-5900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-600</v>
       </c>
-      <c r="W26" s="3">
-        <v>0</v>
-      </c>
       <c r="X26" s="3">
         <v>0</v>
       </c>
@@ -2198,71 +2250,74 @@
       <c r="AC26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-1700</v>
       </c>
       <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>-200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>300</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>2300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>5200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-5900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-2100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-600</v>
       </c>
-      <c r="W27" s="3">
-        <v>0</v>
-      </c>
       <c r="X27" s="3">
         <v>0</v>
       </c>
@@ -2281,8 +2336,11 @@
       <c r="AC27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2364,8 +2422,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2447,8 +2508,11 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2530,8 +2594,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2613,62 +2680,65 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>3800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-6500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>5000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>100</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
@@ -2696,71 +2766,74 @@
       <c r="AC32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-1700</v>
       </c>
       <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>-200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>300</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>2300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>5200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-5900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-600</v>
       </c>
-      <c r="W33" s="3">
-        <v>0</v>
-      </c>
       <c r="X33" s="3">
         <v>0</v>
       </c>
@@ -2779,8 +2852,11 @@
       <c r="AC33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2862,71 +2938,74 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-1700</v>
       </c>
       <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>-200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>300</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>2300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>5200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-5900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-600</v>
       </c>
-      <c r="W35" s="3">
-        <v>0</v>
-      </c>
       <c r="X35" s="3">
         <v>0</v>
       </c>
@@ -2945,96 +3024,102 @@
       <c r="AC35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3064,8 +3149,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3095,71 +3181,72 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100</v>
+      </c>
+      <c r="E41" s="3">
         <v>200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>500</v>
-      </c>
-      <c r="N41" s="3">
-        <v>600</v>
       </c>
       <c r="O41" s="3">
         <v>600</v>
       </c>
       <c r="P41" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q41" s="3">
         <v>400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1000</v>
       </c>
-      <c r="W41" s="3">
-        <v>0</v>
-      </c>
       <c r="X41" s="3">
         <v>0</v>
       </c>
@@ -3178,8 +3265,11 @@
       <c r="AC41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3261,8 +3351,11 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3273,22 +3366,22 @@
         <v>0</v>
       </c>
       <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
         <v>900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>900</v>
-      </c>
-      <c r="I43" s="3">
-        <v>600</v>
       </c>
       <c r="J43" s="3">
         <v>600</v>
       </c>
       <c r="K43" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L43" s="3">
         <v>300</v>
@@ -3300,32 +3393,32 @@
         <v>300</v>
       </c>
       <c r="O43" s="3">
+        <v>300</v>
+      </c>
+      <c r="P43" s="3">
         <v>200</v>
-      </c>
-      <c r="P43" s="3">
-        <v>100</v>
       </c>
       <c r="Q43" s="3">
         <v>100</v>
       </c>
       <c r="R43" s="3">
+        <v>100</v>
+      </c>
+      <c r="S43" s="3">
         <v>300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>100</v>
       </c>
-      <c r="T43" s="3">
-        <v>0</v>
-      </c>
       <c r="U43" s="3">
         <v>0</v>
       </c>
       <c r="V43" s="3">
+        <v>0</v>
+      </c>
+      <c r="W43" s="3">
         <v>100</v>
       </c>
-      <c r="W43" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X43" s="3" t="s">
         <v>5</v>
       </c>
@@ -3344,8 +3437,11 @@
       <c r="AC43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3395,20 +3491,20 @@
         <v>200</v>
       </c>
       <c r="S44" s="3">
+        <v>200</v>
+      </c>
+      <c r="T44" s="3">
         <v>100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>700</v>
       </c>
-      <c r="W44" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X44" s="3" t="s">
         <v>5</v>
       </c>
@@ -3427,8 +3523,11 @@
       <c r="AC44" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3439,13 +3538,13 @@
         <v>0</v>
       </c>
       <c r="F45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G45" s="3">
         <v>100</v>
       </c>
       <c r="H45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I45" s="3">
         <v>0</v>
@@ -3460,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="M45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N45" s="3">
         <v>100</v>
@@ -3472,25 +3571,25 @@
         <v>100</v>
       </c>
       <c r="Q45" s="3">
+        <v>100</v>
+      </c>
+      <c r="R45" s="3">
         <v>300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>100</v>
       </c>
-      <c r="S45" s="3">
-        <v>0</v>
-      </c>
       <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3">
         <v>100</v>
       </c>
-      <c r="U45" s="3">
-        <v>0</v>
-      </c>
-      <c r="V45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W45" s="3">
-        <v>0</v>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+      <c r="W45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="X45" s="3">
         <v>0</v>
@@ -3504,77 +3603,80 @@
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-      <c r="AB45" s="3" t="s">
-        <v>5</v>
+      <c r="AB45" s="3">
+        <v>0</v>
       </c>
       <c r="AC45" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>400</v>
+      </c>
+      <c r="E46" s="3">
         <v>500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1500</v>
-      </c>
-      <c r="G46" s="3">
-        <v>1900</v>
       </c>
       <c r="H46" s="3">
         <v>1900</v>
       </c>
       <c r="I46" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J46" s="3">
         <v>1100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1800</v>
       </c>
-      <c r="W46" s="3">
-        <v>0</v>
-      </c>
       <c r="X46" s="3">
         <v>0</v>
       </c>
@@ -3593,8 +3695,11 @@
       <c r="AC46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3676,8 +3781,11 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3697,7 +3805,7 @@
         <v>100</v>
       </c>
       <c r="I48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J48" s="3">
         <v>0</v>
@@ -3738,8 +3846,8 @@
       <c r="V48" s="3">
         <v>0</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>5</v>
+      <c r="W48" s="3">
+        <v>0</v>
       </c>
       <c r="X48" s="3" t="s">
         <v>5</v>
@@ -3759,8 +3867,11 @@
       <c r="AC48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3842,8 +3953,11 @@
       <c r="AC49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3925,8 +4039,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4008,8 +4125,11 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4058,17 +4178,17 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T52" s="3">
-        <v>0</v>
-      </c>
-      <c r="U52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V52" s="3">
-        <v>0</v>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W52" s="3">
         <v>0</v>
@@ -4091,8 +4211,11 @@
       <c r="AC52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4174,71 +4297,74 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>400</v>
+      </c>
+      <c r="E54" s="3">
         <v>500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1600</v>
-      </c>
-      <c r="G54" s="3">
-        <v>2000</v>
       </c>
       <c r="H54" s="3">
         <v>2000</v>
       </c>
       <c r="I54" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J54" s="3">
         <v>1100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1800</v>
       </c>
-      <c r="W54" s="3">
-        <v>0</v>
-      </c>
       <c r="X54" s="3">
         <v>0</v>
       </c>
@@ -4257,8 +4383,11 @@
       <c r="AC54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4288,8 +4417,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4319,40 +4449,41 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E57" s="3">
         <v>200</v>
       </c>
       <c r="F57" s="3">
+        <v>200</v>
+      </c>
+      <c r="G57" s="3">
         <v>800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>200</v>
-      </c>
-      <c r="M57" s="3">
-        <v>300</v>
       </c>
       <c r="N57" s="3">
         <v>300</v>
@@ -4367,23 +4498,23 @@
         <v>300</v>
       </c>
       <c r="R57" s="3">
+        <v>300</v>
+      </c>
+      <c r="S57" s="3">
         <v>400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>100</v>
       </c>
-      <c r="W57" s="3">
-        <v>0</v>
-      </c>
       <c r="X57" s="3">
         <v>0</v>
       </c>
@@ -4402,13 +4533,16 @@
       <c r="AC57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="E58" s="3">
         <v>600</v>
@@ -4423,52 +4557,52 @@
         <v>600</v>
       </c>
       <c r="I58" s="3">
+        <v>600</v>
+      </c>
+      <c r="J58" s="3">
         <v>800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>400</v>
-      </c>
-      <c r="S58" s="3">
-        <v>100</v>
       </c>
       <c r="T58" s="3">
         <v>100</v>
       </c>
       <c r="U58" s="3">
+        <v>100</v>
+      </c>
+      <c r="V58" s="3">
         <v>3300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1600</v>
       </c>
-      <c r="W58" s="3">
-        <v>0</v>
-      </c>
       <c r="X58" s="3">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="Y58" s="3">
         <v>1200</v>
@@ -4485,73 +4619,76 @@
       <c r="AC58" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E59" s="3">
         <v>3900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>6700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>6700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>10200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>5000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2000</v>
       </c>
-      <c r="W59" s="3">
-        <v>0</v>
-      </c>
       <c r="X59" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y59" s="3">
         <v>400</v>
@@ -4560,7 +4697,7 @@
         <v>400</v>
       </c>
       <c r="AA59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="AB59" s="3">
         <v>300</v>
@@ -4568,22 +4705,25 @@
       <c r="AC59" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD59" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E60" s="3">
         <v>4800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4600</v>
-      </c>
-      <c r="G60" s="3">
-        <v>4700</v>
       </c>
       <c r="H60" s="3">
         <v>4700</v>
@@ -4592,49 +4732,49 @@
         <v>4700</v>
       </c>
       <c r="J60" s="3">
+        <v>4700</v>
+      </c>
+      <c r="K60" s="3">
         <v>4800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>8100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>8100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>11000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>6400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>3700</v>
       </c>
-      <c r="W60" s="3">
-        <v>0</v>
-      </c>
       <c r="X60" s="3">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="Y60" s="3">
         <v>1600</v>
@@ -4651,13 +4791,16 @@
       <c r="AC60" s="3">
         <v>1600</v>
       </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="E61" s="3">
         <v>600</v>
@@ -4672,13 +4815,13 @@
         <v>600</v>
       </c>
       <c r="I61" s="3">
+        <v>600</v>
+      </c>
+      <c r="J61" s="3">
         <v>700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>800</v>
-      </c>
-      <c r="K61" s="3">
-        <v>100</v>
       </c>
       <c r="L61" s="3">
         <v>100</v>
@@ -4687,14 +4830,14 @@
         <v>100</v>
       </c>
       <c r="N61" s="3">
+        <v>100</v>
+      </c>
+      <c r="O61" s="3">
         <v>300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>400</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -4711,11 +4854,11 @@
         <v>0</v>
       </c>
       <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
         <v>1700</v>
       </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
       <c r="X61" s="3">
         <v>0</v>
       </c>
@@ -4734,8 +4877,11 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4746,7 +4892,7 @@
         <v>0</v>
       </c>
       <c r="F62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G62" s="3">
         <v>100</v>
@@ -4754,8 +4900,8 @@
       <c r="H62" s="3">
         <v>100</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>5</v>
+      <c r="I62" s="3">
+        <v>100</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>5</v>
@@ -4769,26 +4915,26 @@
       <c r="M62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3">
         <v>100</v>
-      </c>
-      <c r="P62" s="3">
-        <v>200</v>
       </c>
       <c r="Q62" s="3">
         <v>200</v>
       </c>
       <c r="R62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="S62" s="3">
         <v>300</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>5</v>
+      <c r="T62" s="3">
+        <v>300</v>
       </c>
       <c r="U62" s="3" t="s">
         <v>5</v>
@@ -4802,8 +4948,8 @@
       <c r="X62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y62" s="3">
-        <v>0</v>
+      <c r="Y62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Z62" s="3">
         <v>0</v>
@@ -4817,8 +4963,11 @@
       <c r="AC62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4900,8 +5049,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4983,8 +5135,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5066,22 +5221,25 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E66" s="3">
         <v>5400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5200</v>
-      </c>
-      <c r="G66" s="3">
-        <v>5400</v>
       </c>
       <c r="H66" s="3">
         <v>5400</v>
@@ -5090,49 +5248,49 @@
         <v>5400</v>
       </c>
       <c r="J66" s="3">
+        <v>5400</v>
+      </c>
+      <c r="K66" s="3">
         <v>5700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>8400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>8300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>11300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>5600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>6400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>5400</v>
       </c>
-      <c r="W66" s="3">
-        <v>0</v>
-      </c>
       <c r="X66" s="3">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="Y66" s="3">
         <v>1600</v>
@@ -5149,8 +5307,11 @@
       <c r="AC66" s="3">
         <v>1600</v>
       </c>
-    </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD66" s="3">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5180,8 +5341,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5263,8 +5425,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5346,8 +5511,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5376,7 +5544,7 @@
         <v>300</v>
       </c>
       <c r="L70" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="M70" s="3">
         <v>0</v>
@@ -5429,8 +5597,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5512,22 +5683,25 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-14200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-12600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-12700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-11500</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-11100</v>
       </c>
       <c r="H72" s="3">
         <v>-11100</v>
@@ -5536,46 +5710,46 @@
         <v>-11100</v>
       </c>
       <c r="J72" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="K72" s="3">
         <v>-10900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-10800</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-11100</v>
       </c>
       <c r="M72" s="3">
         <v>-11100</v>
       </c>
       <c r="N72" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="O72" s="3">
         <v>-13500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-11300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-13300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-8100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-13200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-7300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-5200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-4500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-3600</v>
-      </c>
-      <c r="W72" s="3">
-        <v>-11800</v>
       </c>
       <c r="X72" s="3">
         <v>-11800</v>
@@ -5584,7 +5758,7 @@
         <v>-11800</v>
       </c>
       <c r="Z72" s="3">
-        <v>-11700</v>
+        <v>-11800</v>
       </c>
       <c r="AA72" s="3">
         <v>-11700</v>
@@ -5595,8 +5769,11 @@
       <c r="AC72" s="3">
         <v>-11700</v>
       </c>
-    </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD72" s="3">
+        <v>-11700</v>
+      </c>
+    </row>
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5678,8 +5855,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5761,8 +5941,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5844,73 +6027,76 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-5100</v>
+        <v>-6800</v>
       </c>
       <c r="E76" s="3">
         <v>-5100</v>
       </c>
       <c r="F76" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="G76" s="3">
         <v>-3900</v>
-      </c>
-      <c r="G76" s="3">
-        <v>-3600</v>
       </c>
       <c r="H76" s="3">
         <v>-3600</v>
       </c>
       <c r="I76" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="J76" s="3">
         <v>-4500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-4400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-4300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-4700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-5700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-7200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-5100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-7400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-4600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-10000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-4000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-1900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-4500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-3600</v>
       </c>
-      <c r="W76" s="3">
-        <v>0</v>
-      </c>
       <c r="X76" s="3">
-        <v>-1600</v>
+        <v>0</v>
       </c>
       <c r="Y76" s="3">
         <v>-1600</v>
@@ -5927,8 +6113,11 @@
       <c r="AC76" s="3">
         <v>-1600</v>
       </c>
-    </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD76" s="3">
+        <v>-1600</v>
+      </c>
+    </row>
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6010,159 +6199,165 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-1700</v>
       </c>
       <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>-200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>300</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>2300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>5200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-5900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-600</v>
       </c>
-      <c r="W81" s="3">
-        <v>0</v>
-      </c>
       <c r="X81" s="3">
         <v>0</v>
       </c>
@@ -6181,8 +6376,11 @@
       <c r="AC81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6212,8 +6410,9 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6271,8 +6470,8 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>5</v>
+      <c r="V83" s="3">
+        <v>0</v>
       </c>
       <c r="W83" s="3" t="s">
         <v>5</v>
@@ -6280,8 +6479,8 @@
       <c r="X83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y83" s="3">
-        <v>0</v>
+      <c r="Y83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Z83" s="3">
         <v>0</v>
@@ -6295,8 +6494,11 @@
       <c r="AC83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6378,8 +6580,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6461,8 +6666,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6544,8 +6752,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6627,8 +6838,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6710,71 +6924,74 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-200</v>
       </c>
       <c r="N89" s="3">
         <v>-200</v>
       </c>
       <c r="O89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P89" s="3">
         <v>-300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-1500</v>
       </c>
-      <c r="W89" s="3">
-        <v>0</v>
-      </c>
       <c r="X89" s="3">
         <v>0</v>
       </c>
@@ -6793,8 +7010,11 @@
       <c r="AC89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6824,8 +7044,9 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6907,8 +7128,11 @@
       <c r="AC91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6990,8 +7214,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7073,8 +7300,11 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7156,8 +7386,11 @@
       <c r="AC94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7187,8 +7420,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7270,8 +7504,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7353,8 +7590,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7436,8 +7676,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7519,8 +7762,11 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7534,56 +7780,56 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>-100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>600</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>300</v>
-      </c>
-      <c r="O100" s="3">
-        <v>400</v>
       </c>
       <c r="P100" s="3">
         <v>400</v>
       </c>
       <c r="Q100" s="3">
+        <v>400</v>
+      </c>
+      <c r="R100" s="3">
         <v>200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1400</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
         <v>0</v>
       </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>1100</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
       <c r="X100" s="3">
         <v>0</v>
       </c>
@@ -7602,8 +7848,11 @@
       <c r="AC100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7685,71 +7934,74 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>100</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-200</v>
       </c>
-      <c r="W102" s="3">
-        <v>0</v>
-      </c>
       <c r="X102" s="3">
         <v>0</v>
       </c>
@@ -7766,6 +8018,9 @@
         <v>0</v>
       </c>
       <c r="AC102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="3">
         <v>0</v>
       </c>
     </row>
